--- a/DOEAssessmentApp/static/defaultdata.xlsx
+++ b/DOEAssessmentApp/static/defaultdata.xlsx
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Retake assessment hours</t>
-  </si>
-  <si>
-    <t>SL.NO</t>
   </si>
   <si>
     <t>Questions</t>
@@ -344,16 +341,19 @@
     <t>This is question number 37</t>
   </si>
   <si>
-    <t>38,29,40</t>
-  </si>
-  <si>
     <t>This is question number 38</t>
   </si>
   <si>
     <t>This is question number 39</t>
   </si>
   <si>
+    <t>This is question number 38,This is question number 37</t>
+  </si>
+  <si>
     <t>This is question number 40</t>
+  </si>
+  <si>
+    <t>This is question number 39,This is question number 38,This is question number 37</t>
   </si>
   <si>
     <t>SUB FUNCTIONALITY</t>
@@ -954,14 +954,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -996,14 +996,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2249,7 +2249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X699"/>
+  <dimension ref="A1:W699"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2261,22 +2261,22 @@
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.6719" style="1" customWidth="1"/>
-    <col min="7" max="9" width="27.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.8516" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.8516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1719" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.8516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.1719" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.3516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.8516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.3516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.8516" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="8" width="27.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="45" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="67.1719" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.8516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.8516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.8516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.8516" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -2307,7 +2307,7 @@
       <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
       <c r="K1" t="s" s="2">
@@ -2320,59 +2320,56 @@
         <v>12</v>
       </c>
       <c r="N1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>11</v>
       </c>
       <c r="P1" t="s" s="2">
         <v>14</v>
       </c>
       <c r="Q1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="R1" t="s" s="2">
-        <v>11</v>
       </c>
       <c r="S1" t="s" s="2">
         <v>16</v>
       </c>
       <c r="T1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="U1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="5"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="5"/>
     </row>
     <row r="2" ht="15.6" customHeight="1">
       <c r="A2" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="C2" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="D2" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="E2" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="F2" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="G2" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="H2" t="s" s="7">
         <v>25</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
       </c>
       <c r="I2" t="s" s="7">
         <v>26</v>
@@ -2380,57 +2377,50 @@
       <c r="J2" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="K2" t="s" s="7">
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="O2" s="8">
+      <c r="N2" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="5"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="C3" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="D3" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="E3" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="F3" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="G3" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="G3" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2</v>
+      <c r="H3" t="s" s="7">
+        <v>29</v>
       </c>
       <c r="I3" t="s" s="7">
         <v>30</v>
@@ -2438,2290 +2428,2183 @@
       <c r="J3" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L3" s="8">
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" t="s" s="9">
+      <c r="R3" s="9"/>
+      <c r="S3" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R3" s="8">
+      <c r="T3" s="8">
         <v>1</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U3" s="8">
-        <v>1</v>
-      </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="C4" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="D4" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="E4" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="F4" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="G4" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3</v>
+      <c r="H4" t="s" s="7">
+        <v>35</v>
       </c>
       <c r="I4" t="s" s="7">
         <v>36</v>
       </c>
       <c r="J4" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" t="s" s="9">
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" t="s" s="9">
+      <c r="Q4" s="8">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R4" s="8">
+      <c r="T4" s="8">
         <v>5</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U4" s="8">
-        <v>5</v>
-      </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="5"/>
+      <c r="U4" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="C5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="D5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="7">
-        <v>22</v>
-      </c>
       <c r="E5" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="F5" t="s" s="7">
+      <c r="G5" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="7">
+      <c r="H5" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="8">
         <v>4</v>
       </c>
-      <c r="I5" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="L5" s="8">
-        <v>2</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s" s="9">
+      <c r="R5" s="9"/>
+      <c r="S5" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R5" s="8">
+      <c r="T5" s="8">
         <v>4</v>
       </c>
-      <c r="S5" s="8">
-        <v>6</v>
-      </c>
-      <c r="T5" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U5" s="8">
-        <v>4</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="5"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="C6" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="D6" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="7">
-        <v>22</v>
-      </c>
       <c r="E6" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="G6" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="G6" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="H6" s="8">
-        <v>5</v>
+      <c r="H6" t="s" s="7">
+        <v>41</v>
       </c>
       <c r="I6" t="s" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="K6" t="s" s="7">
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="T6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-      <c r="S6" s="11"/>
-      <c r="T6" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U6" s="8">
-        <v>2</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="5"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="C7" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="D7" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="7">
-        <v>22</v>
-      </c>
       <c r="E7" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="F7" t="s" s="7">
+      <c r="G7" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="G7" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="H7" s="8">
-        <v>6</v>
+      <c r="H7" t="s" s="7">
+        <v>42</v>
       </c>
       <c r="I7" t="s" s="7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="K7" t="s" s="7">
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="N7" s="8">
         <v>1</v>
       </c>
+      <c r="O7" s="9"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="5"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="5"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C8" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="E8" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="F8" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="F8" t="s" s="7">
+      <c r="G8" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="G8" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="H8" s="8">
-        <v>7</v>
-      </c>
       <c r="I8" t="s" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" t="s" s="9">
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" t="s" s="9">
+      <c r="Q8" s="8">
+        <v>3</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R8" s="8">
+      <c r="T8" s="8">
         <v>3</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U8" s="8">
-        <v>3</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="5"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C9" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="E9" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="F9" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="F9" t="s" s="7">
-        <v>47</v>
-      </c>
       <c r="G9" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="H9" s="8">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="H9" t="s" s="7">
+        <v>48</v>
       </c>
       <c r="I9" t="s" s="7">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="K9" t="s" s="7">
+      <c r="K9" s="8">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L9" s="8">
-        <v>4</v>
-      </c>
-      <c r="M9" s="8">
-        <v>7</v>
-      </c>
-      <c r="N9" t="s" s="9">
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" t="s" s="9">
+      <c r="Q9" s="8">
+        <v>2</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R9" s="8">
-        <v>2</v>
-      </c>
-      <c r="S9" s="8">
-        <v>9</v>
-      </c>
-      <c r="T9" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U9" s="8">
+      <c r="T9" s="8">
         <v>3</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="5"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C10" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="E10" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="E10" t="s" s="7">
+      <c r="F10" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="F10" t="s" s="7">
-        <v>47</v>
-      </c>
       <c r="G10" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="H10" s="8">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="H10" t="s" s="7">
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L10" s="8">
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="8">
         <v>2</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" t="s" s="9">
+      <c r="R10" s="9"/>
+      <c r="S10" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R10" s="8">
-        <v>2</v>
-      </c>
-      <c r="S10" s="11"/>
-      <c r="T10" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U10" s="8">
+      <c r="T10" s="8">
         <v>3</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="5"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="5"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C11" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D11" t="s" s="7">
+      <c r="E11" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="E11" t="s" s="7">
+      <c r="F11" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="F11" t="s" s="7">
-        <v>47</v>
-      </c>
       <c r="G11" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="H11" s="8">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="H11" t="s" s="7">
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="K11" t="s" s="7">
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="N11" s="8">
         <v>1</v>
       </c>
+      <c r="O11" t="s" s="7">
+        <v>49</v>
+      </c>
       <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="5"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B12" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C12" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D12" t="s" s="7">
-        <v>45</v>
-      </c>
       <c r="E12" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="F12" t="s" s="7">
+      <c r="G12" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="G12" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="H12" s="8">
-        <v>11</v>
-      </c>
       <c r="I12" t="s" s="7">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L12" s="8">
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="8">
         <v>1</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" t="s" s="9">
+      <c r="R12" s="9"/>
+      <c r="S12" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R12" s="8">
-        <v>1</v>
-      </c>
-      <c r="S12" s="11"/>
-      <c r="T12" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U12" s="8">
+      <c r="T12" s="8">
         <v>4</v>
       </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="5"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B13" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C13" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D13" t="s" s="7">
-        <v>45</v>
-      </c>
       <c r="E13" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="F13" t="s" s="7">
-        <v>53</v>
-      </c>
       <c r="G13" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="H13" s="8">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H13" t="s" s="7">
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="K13" t="s" s="7">
+      <c r="K13" s="8">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L13" s="8">
-        <v>3</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" t="s" s="9">
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" t="s" s="9">
+      <c r="Q13" s="8">
+        <v>4</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R13" s="8">
-        <v>4</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U13" s="8">
+      <c r="T13" s="8">
         <v>2</v>
       </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="5"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B14" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C14" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D14" t="s" s="7">
-        <v>45</v>
-      </c>
       <c r="E14" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="F14" t="s" s="7">
-        <v>53</v>
-      </c>
       <c r="G14" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="H14" t="s" s="7">
+        <v>55</v>
       </c>
       <c r="I14" t="s" s="7">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="K14" t="s" s="7">
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="N14" s="8">
         <v>0</v>
       </c>
+      <c r="O14" s="9"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B15" t="s" s="6">
-        <v>20</v>
-      </c>
       <c r="C15" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D15" t="s" s="7">
-        <v>45</v>
-      </c>
       <c r="E15" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="F15" t="s" s="7">
-        <v>53</v>
-      </c>
       <c r="G15" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="H15" s="8">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="H15" t="s" s="7">
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="7">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="L15" s="8">
+      <c r="N15" s="8">
         <v>1</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" t="s" s="9">
+      <c r="O15" s="9"/>
+      <c r="P15" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="O15" s="8">
+      <c r="Q15" s="8">
         <v>1</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" t="s" s="9">
+      <c r="R15" s="9"/>
+      <c r="S15" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="R15" s="8">
-        <v>1</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="T15" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="U15" s="8">
+      <c r="T15" s="8">
         <v>5</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="5"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="5"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="C16" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="D16" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="E16" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="F16" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="G16" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="G16" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="H16" s="13">
-        <v>15</v>
-      </c>
       <c r="I16" t="s" s="12">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K16" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L16" s="13">
+      <c r="N16" s="13">
+        <v>2</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="13">
         <v>1</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="O16" s="13">
-        <v>2</v>
-      </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" t="s" s="15">
+      <c r="R16" s="14"/>
+      <c r="S16" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R16" s="13">
-        <v>1</v>
-      </c>
-      <c r="S16" s="14"/>
-      <c r="T16" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U16" s="13">
+      <c r="T16" s="13">
         <v>3</v>
       </c>
-      <c r="V16" s="14"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="5"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="C17" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="D17" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="E17" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="F17" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="F17" t="s" s="12">
-        <v>63</v>
-      </c>
       <c r="G17" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="H17" s="13">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H17" t="s" s="12">
+        <v>64</v>
       </c>
       <c r="I17" t="s" s="12">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K17" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L17" s="13">
+      <c r="N17" s="13">
+        <v>2</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="13">
         <v>1</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="O17" s="13">
-        <v>2</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" t="s" s="15">
+      <c r="R17" s="14"/>
+      <c r="S17" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R17" s="13">
-        <v>1</v>
-      </c>
-      <c r="S17" s="14"/>
-      <c r="T17" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U17" s="13">
+      <c r="T17" s="13">
         <v>5</v>
       </c>
-      <c r="V17" s="14"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="5"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="C18" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="D18" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="E18" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="F18" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="F18" t="s" s="12">
-        <v>63</v>
-      </c>
       <c r="G18" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="H18" s="13">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="H18" t="s" s="12">
+        <v>65</v>
       </c>
       <c r="I18" t="s" s="12">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="K18" t="s" s="12">
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="L18" s="13">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="O18" s="13">
+      <c r="N18" s="13">
         <v>1</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="16"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="C19" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="D19" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D19" t="s" s="12">
-        <v>61</v>
-      </c>
       <c r="E19" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="G19" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s" s="12">
         <v>68</v>
       </c>
-      <c r="G19" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H19" s="13">
-        <v>18</v>
-      </c>
       <c r="I19" t="s" s="12">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K19" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L19" s="13">
-        <v>1</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" t="s" s="15">
+      <c r="N19" s="13">
+        <v>3</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="O19" s="13">
-        <v>3</v>
-      </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" t="s" s="15">
+      <c r="Q19" s="13">
+        <v>2</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R19" s="13">
-        <v>2</v>
-      </c>
-      <c r="S19" s="14"/>
-      <c r="T19" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U19" s="13">
+      <c r="T19" s="13">
         <v>4</v>
       </c>
-      <c r="V19" s="14"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="5"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="5"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="C20" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="D20" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D20" t="s" s="12">
-        <v>61</v>
-      </c>
       <c r="E20" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="F20" t="s" s="12">
-        <v>68</v>
-      </c>
       <c r="G20" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H20" s="13">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="H20" t="s" s="12">
+        <v>69</v>
       </c>
       <c r="I20" t="s" s="12">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K20" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L20" s="13">
-        <v>1</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" t="s" s="15">
+      <c r="N20" s="13">
+        <v>2</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="O20" s="13">
-        <v>2</v>
-      </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" t="s" s="15">
+      <c r="Q20" s="13">
+        <v>3</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R20" s="13">
+      <c r="T20" s="13">
         <v>3</v>
       </c>
-      <c r="S20" s="14"/>
-      <c r="T20" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U20" s="13">
-        <v>3</v>
-      </c>
-      <c r="V20" s="14"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="5"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B21" t="s" s="6">
+      <c r="C21" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="D21" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D21" t="s" s="12">
-        <v>61</v>
-      </c>
       <c r="E21" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="F21" t="s" s="12">
-        <v>68</v>
-      </c>
       <c r="G21" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H21" s="13">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="H21" t="s" s="12">
+        <v>70</v>
       </c>
       <c r="I21" t="s" s="12">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="K21" t="s" s="12">
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="L21" s="13">
-        <v>1</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="O21" s="13">
+      <c r="N21" s="13">
         <v>0</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="16"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="5"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B22" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C22" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s" s="12">
         <v>72</v>
-      </c>
-      <c r="D22" t="s" s="12">
-        <v>73</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="H22" s="13">
-        <v>21</v>
-      </c>
       <c r="I22" t="s" s="12">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K22" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L22" s="13">
-        <v>1</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" t="s" s="15">
+      <c r="N22" s="13">
+        <v>3</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="O22" s="13">
-        <v>3</v>
-      </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" t="s" s="15">
+      <c r="Q22" s="13">
+        <v>4</v>
+      </c>
+      <c r="R22" s="14"/>
+      <c r="S22" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R22" s="13">
-        <v>4</v>
-      </c>
-      <c r="S22" s="14"/>
-      <c r="T22" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U22" s="13">
+      <c r="T22" s="13">
         <v>2</v>
       </c>
-      <c r="V22" s="14"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="5"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="5"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B23" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C23" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s" s="12">
         <v>72</v>
-      </c>
-      <c r="D23" t="s" s="12">
-        <v>73</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="H23" s="13">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="H23" t="s" s="12">
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="K23" t="s" s="12">
+      <c r="K23" s="13">
+        <v>2</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L23" s="13">
-        <v>2</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" t="s" s="15">
+      <c r="N23" s="13">
+        <v>4</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="O23" s="13">
-        <v>4</v>
-      </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" t="s" s="15">
+      <c r="Q23" s="13">
+        <v>3</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R23" s="13">
-        <v>3</v>
-      </c>
-      <c r="S23" s="14"/>
-      <c r="T23" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U23" s="13">
+      <c r="T23" s="13">
         <v>1</v>
       </c>
-      <c r="V23" s="14"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="5"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="5"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C24" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>72</v>
-      </c>
-      <c r="D24" t="s" s="12">
-        <v>73</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="H24" s="13">
-        <v>23</v>
+        <v>73</v>
+      </c>
+      <c r="H24" t="s" s="12">
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="12">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K24" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K24" s="13">
+        <v>2</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L24" s="13">
+      <c r="N24" s="13">
         <v>2</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" t="s" s="15">
+      <c r="O24" s="14"/>
+      <c r="P24" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="O24" s="13">
-        <v>2</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" t="s" s="15">
+      <c r="Q24" s="13">
+        <v>5</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R24" s="13">
-        <v>5</v>
-      </c>
-      <c r="S24" s="14"/>
-      <c r="T24" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U24" s="13">
+      <c r="T24" s="13">
         <v>1</v>
       </c>
-      <c r="V24" s="14"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="5"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="5"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B25" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C25" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>72</v>
-      </c>
-      <c r="D25" t="s" s="12">
-        <v>73</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="H25" s="13">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="H25" t="s" s="12">
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="12">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K25" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L25" s="13">
+      <c r="N25" s="13">
+        <v>3</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>5</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="T25" s="13">
         <v>2</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="O25" s="13">
-        <v>3</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="R25" s="13">
-        <v>5</v>
-      </c>
-      <c r="S25" s="14"/>
-      <c r="T25" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U25" s="13">
-        <v>2</v>
-      </c>
-      <c r="V25" s="14"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="5"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B26" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C26" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="E26" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="F26" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="G26" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="G26" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H26" s="13">
-        <v>25</v>
-      </c>
       <c r="I26" t="s" s="12">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K26" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K26" s="13">
+        <v>3</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L26" s="13">
+      <c r="N26" s="13">
+        <v>2</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>2</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="T26" s="13">
         <v>3</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="O26" s="13">
-        <v>2</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="R26" s="13">
-        <v>2</v>
-      </c>
-      <c r="S26" s="14"/>
-      <c r="T26" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U26" s="13">
-        <v>3</v>
-      </c>
-      <c r="V26" s="14"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="5"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B27" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C27" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="E27" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="F27" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="F27" t="s" s="12">
-        <v>82</v>
-      </c>
       <c r="G27" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H27" s="13">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s" s="12">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s" s="12">
         <v>26</v>
-      </c>
-      <c r="I27" t="s" s="12">
-        <v>84</v>
       </c>
       <c r="J27" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="K27" t="s" s="12">
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="L27" s="13">
-        <v>1</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="O27" s="13">
+      <c r="N27" s="13">
         <v>0</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="16"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="5"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="5"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B28" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C28" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="E28" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="F28" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="F28" t="s" s="12">
-        <v>82</v>
-      </c>
       <c r="G28" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H28" s="13">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="H28" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="12">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K28" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K28" s="13">
+        <v>2</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L28" s="13">
+      <c r="N28" s="13">
+        <v>4</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="13">
         <v>2</v>
       </c>
-      <c r="M28" s="14"/>
-      <c r="N28" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="O28" s="13">
-        <v>4</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" t="s" s="15">
+      <c r="R28" s="14"/>
+      <c r="S28" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R28" s="13">
+      <c r="T28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="14"/>
-      <c r="T28" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U28" s="13">
-        <v>2</v>
-      </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="5"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="5"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B29" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="C29" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="E29" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="F29" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="F29" t="s" s="12">
-        <v>82</v>
-      </c>
       <c r="G29" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H29" s="13">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="12">
+        <v>85</v>
       </c>
       <c r="I29" t="s" s="12">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="K29" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="K29" s="13">
+        <v>3</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="L29" s="13">
+      <c r="N29" s="13">
+        <v>2</v>
+      </c>
+      <c r="O29" s="14"/>
+      <c r="P29" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="13">
         <v>3</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="O29" s="13">
-        <v>2</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" t="s" s="15">
+      <c r="R29" s="14"/>
+      <c r="S29" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="R29" s="13">
-        <v>3</v>
-      </c>
-      <c r="S29" s="14"/>
-      <c r="T29" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="U29" s="13">
+      <c r="T29" s="13">
         <v>1</v>
       </c>
-      <c r="V29" s="14"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="5"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B30" t="s" s="6">
+      <c r="C30" t="s" s="20">
         <v>88</v>
       </c>
-      <c r="C30" t="s" s="20">
+      <c r="D30" t="s" s="20">
         <v>89</v>
-      </c>
-      <c r="D30" t="s" s="20">
-        <v>90</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="H30" s="22">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="20">
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="20">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="K30" t="s" s="20">
+      <c r="K30" s="22">
+        <v>0</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" t="s" s="24">
         <v>28</v>
       </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22">
-        <v>30</v>
-      </c>
-      <c r="N30" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="O30" s="22">
+      <c r="N30" s="22">
         <v>1</v>
       </c>
-      <c r="P30" s="22">
-        <v>31</v>
-      </c>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="25"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
       <c r="S30" s="25"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="5"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B31" t="s" s="6">
+      <c r="C31" t="s" s="20">
         <v>88</v>
       </c>
-      <c r="C31" t="s" s="20">
+      <c r="D31" t="s" s="20">
         <v>89</v>
-      </c>
-      <c r="D31" t="s" s="20">
-        <v>90</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="H31" s="22">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="H31" t="s" s="20">
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="20">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K31" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K31" s="22">
+        <v>2</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="L31" s="22">
-        <v>2</v>
-      </c>
-      <c r="M31" s="25"/>
-      <c r="N31" t="s" s="23">
+      <c r="N31" s="22">
+        <v>5</v>
+      </c>
+      <c r="O31" s="23"/>
+      <c r="P31" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="O31" s="22">
-        <v>5</v>
-      </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" t="s" s="23">
+      <c r="Q31" s="22">
+        <v>4</v>
+      </c>
+      <c r="R31" s="23"/>
+      <c r="S31" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="R31" s="22">
-        <v>4</v>
-      </c>
-      <c r="S31" s="25"/>
-      <c r="T31" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U31" s="22">
+      <c r="T31" s="22">
         <v>3</v>
       </c>
-      <c r="V31" s="25"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="5"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="C32" t="s" s="20">
         <v>88</v>
       </c>
-      <c r="C32" t="s" s="20">
+      <c r="D32" t="s" s="20">
         <v>89</v>
-      </c>
-      <c r="D32" t="s" s="20">
-        <v>90</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="H32" s="22">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s" s="20">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="I32" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J32" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K32" t="s" s="20">
+      <c r="K32" s="22">
+        <v>1</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="L32" s="22">
-        <v>1</v>
-      </c>
-      <c r="M32" s="25"/>
-      <c r="N32" t="s" s="23">
+      <c r="N32" s="22">
+        <v>4</v>
+      </c>
+      <c r="O32" s="23"/>
+      <c r="P32" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="O32" s="22">
+      <c r="Q32" s="22">
         <v>4</v>
       </c>
-      <c r="P32" s="25"/>
-      <c r="Q32" t="s" s="23">
+      <c r="R32" s="23"/>
+      <c r="S32" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="R32" s="22">
+      <c r="T32" s="22">
         <v>4</v>
       </c>
-      <c r="S32" s="25"/>
-      <c r="T32" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U32" s="22">
-        <v>4</v>
-      </c>
-      <c r="V32" s="25"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="5"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B33" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C33" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="D33" t="s" s="20">
+      <c r="E33" t="s" s="20">
         <v>95</v>
       </c>
-      <c r="E33" t="s" s="20">
+      <c r="F33" t="s" s="20">
         <v>96</v>
       </c>
-      <c r="F33" t="s" s="20">
+      <c r="G33" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s" s="20">
         <v>97</v>
       </c>
-      <c r="G33" t="s" s="20">
-        <v>74</v>
-      </c>
-      <c r="H33" s="22">
+      <c r="I33" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K33" s="22">
+        <v>2</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="I33" t="s" s="20">
-        <v>98</v>
-      </c>
-      <c r="J33" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K33" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="L33" s="22">
+      <c r="N33" s="22">
         <v>2</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" t="s" s="23">
+      <c r="O33" s="23"/>
+      <c r="P33" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="O33" s="22">
+      <c r="Q33" s="22">
+        <v>3</v>
+      </c>
+      <c r="R33" s="23"/>
+      <c r="S33" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="T33" s="22">
         <v>2</v>
       </c>
-      <c r="P33" s="25"/>
-      <c r="Q33" t="s" s="23">
-        <v>34</v>
-      </c>
-      <c r="R33" s="22">
-        <v>3</v>
-      </c>
-      <c r="S33" s="25"/>
-      <c r="T33" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U33" s="22">
-        <v>2</v>
-      </c>
-      <c r="V33" s="25"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="5"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="5"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B34" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C34" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="D34" t="s" s="20">
+      <c r="E34" t="s" s="20">
         <v>95</v>
       </c>
-      <c r="E34" t="s" s="20">
+      <c r="F34" t="s" s="20">
         <v>96</v>
       </c>
-      <c r="F34" t="s" s="20">
-        <v>97</v>
-      </c>
       <c r="G34" t="s" s="20">
-        <v>74</v>
-      </c>
-      <c r="H34" s="22">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="I34" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K34" s="22">
+        <v>1</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="N34" s="22">
+        <v>3</v>
+      </c>
+      <c r="O34" s="23"/>
+      <c r="P34" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="I34" t="s" s="20">
-        <v>99</v>
-      </c>
-      <c r="J34" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K34" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="L34" s="22">
+      <c r="Q34" s="22">
+        <v>5</v>
+      </c>
+      <c r="R34" s="23"/>
+      <c r="S34" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="T34" s="22">
         <v>1</v>
       </c>
-      <c r="M34" s="25"/>
-      <c r="N34" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="O34" s="22">
-        <v>3</v>
-      </c>
-      <c r="P34" s="25"/>
-      <c r="Q34" t="s" s="23">
-        <v>34</v>
-      </c>
-      <c r="R34" s="22">
-        <v>5</v>
-      </c>
-      <c r="S34" s="25"/>
-      <c r="T34" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U34" s="22">
-        <v>1</v>
-      </c>
-      <c r="V34" s="25"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="5"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="5"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B35" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C35" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="D35" t="s" s="20">
+      <c r="E35" t="s" s="20">
         <v>95</v>
       </c>
-      <c r="E35" t="s" s="20">
+      <c r="F35" t="s" s="20">
         <v>96</v>
       </c>
-      <c r="F35" t="s" s="20">
+      <c r="G35" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K35" s="22">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="M35" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="N35" s="22">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s" s="20">
         <v>97</v>
       </c>
-      <c r="G35" t="s" s="20">
-        <v>74</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="P35" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="S35" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="I35" t="s" s="20">
-        <v>100</v>
-      </c>
-      <c r="J35" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K35" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="L35" s="22">
-        <v>1</v>
-      </c>
-      <c r="M35" s="25"/>
-      <c r="N35" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="O35" s="22">
-        <v>4</v>
-      </c>
-      <c r="P35" s="25"/>
-      <c r="Q35" t="s" s="23">
-        <v>34</v>
-      </c>
-      <c r="R35" s="22">
-        <v>4</v>
-      </c>
-      <c r="S35" s="25"/>
-      <c r="T35" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U35" s="22">
+      <c r="T35" s="22">
         <v>2</v>
       </c>
-      <c r="V35" s="25"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="5"/>
+      <c r="U35" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B36" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C36" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s" s="20">
         <v>101</v>
       </c>
-      <c r="D36" t="s" s="20">
+      <c r="E36" t="s" s="20">
         <v>102</v>
       </c>
-      <c r="E36" t="s" s="20">
+      <c r="F36" t="s" s="20">
         <v>103</v>
       </c>
-      <c r="F36" t="s" s="20">
+      <c r="G36" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="20">
         <v>104</v>
       </c>
-      <c r="G36" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="H36" s="22">
-        <v>35</v>
-      </c>
       <c r="I36" t="s" s="20">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="J36" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K36" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K36" s="22">
+        <v>4</v>
+      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="L36" s="22">
-        <v>4</v>
-      </c>
-      <c r="M36" s="25"/>
-      <c r="N36" t="s" s="23">
+      <c r="N36" s="22">
+        <v>5</v>
+      </c>
+      <c r="O36" s="23"/>
+      <c r="P36" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="O36" s="22">
-        <v>5</v>
-      </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" t="s" s="23">
+      <c r="Q36" s="22">
+        <v>3</v>
+      </c>
+      <c r="R36" s="23"/>
+      <c r="S36" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="R36" s="22">
+      <c r="T36" s="22">
         <v>3</v>
       </c>
-      <c r="S36" s="25"/>
-      <c r="T36" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U36" s="22">
-        <v>3</v>
-      </c>
-      <c r="V36" s="25"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="5"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="5"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B37" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C37" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s" s="20">
         <v>101</v>
       </c>
-      <c r="D37" t="s" s="20">
+      <c r="E37" t="s" s="20">
         <v>102</v>
       </c>
-      <c r="E37" t="s" s="20">
+      <c r="F37" t="s" s="20">
         <v>103</v>
       </c>
-      <c r="F37" t="s" s="20">
-        <v>104</v>
-      </c>
       <c r="G37" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="H37" s="22">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="20">
+        <v>105</v>
       </c>
       <c r="I37" t="s" s="20">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="K37" t="s" s="20">
+      <c r="K37" s="22">
+        <v>0</v>
+      </c>
+      <c r="L37" s="23"/>
+      <c r="M37" t="s" s="24">
         <v>28</v>
       </c>
-      <c r="L37" s="22">
-        <v>0</v>
-      </c>
-      <c r="M37" s="25"/>
-      <c r="N37" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="O37" s="22">
+      <c r="N37" s="22">
         <v>1</v>
       </c>
+      <c r="O37" s="23"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
       <c r="S37" s="25"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="5"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B38" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C38" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s" s="20">
         <v>107</v>
-      </c>
-      <c r="D38" t="s" s="20">
-        <v>108</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="H38" s="22">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="H38" t="s" s="20">
+        <v>108</v>
       </c>
       <c r="I38" t="s" s="20">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K38" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K38" s="22">
+        <v>3</v>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="L38" s="22">
-        <v>3</v>
-      </c>
-      <c r="M38" s="25"/>
-      <c r="N38" t="s" s="23">
+      <c r="N38" s="22">
+        <v>5</v>
+      </c>
+      <c r="O38" s="20"/>
+      <c r="P38" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="O38" s="22">
-        <v>5</v>
-      </c>
-      <c r="P38" t="s" s="20">
-        <v>110</v>
-      </c>
-      <c r="Q38" t="s" s="23">
+      <c r="Q38" s="22">
+        <v>2</v>
+      </c>
+      <c r="R38" s="23"/>
+      <c r="S38" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="R38" s="22">
+      <c r="T38" s="22">
         <v>2</v>
       </c>
-      <c r="S38" s="25"/>
-      <c r="T38" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U38" s="22">
-        <v>2</v>
-      </c>
-      <c r="V38" s="25"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="5"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="5"/>
     </row>
     <row r="39" ht="15.6" customHeight="1">
       <c r="A39" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B39" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C39" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s" s="20">
         <v>107</v>
-      </c>
-      <c r="D39" t="s" s="20">
-        <v>108</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="H39" s="22">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="H39" t="s" s="20">
+        <v>109</v>
       </c>
       <c r="I39" t="s" s="20">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K39" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K39" s="22">
+        <v>5</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="L39" s="22">
-        <v>5</v>
-      </c>
-      <c r="M39" s="25"/>
-      <c r="N39" t="s" s="23">
+      <c r="N39" s="22">
+        <v>4</v>
+      </c>
+      <c r="O39" s="23"/>
+      <c r="P39" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="O39" s="22">
-        <v>4</v>
-      </c>
-      <c r="P39" s="25"/>
-      <c r="Q39" t="s" s="23">
+      <c r="Q39" s="22">
+        <v>1</v>
+      </c>
+      <c r="R39" s="23"/>
+      <c r="S39" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="R39" s="22">
+      <c r="T39" s="22">
         <v>1</v>
       </c>
-      <c r="S39" s="25"/>
-      <c r="T39" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U39" s="22">
-        <v>1</v>
-      </c>
-      <c r="V39" s="25"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="5"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="5"/>
     </row>
     <row r="40" ht="15.6" customHeight="1">
       <c r="A40" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B40" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C40" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s" s="20">
         <v>107</v>
-      </c>
-      <c r="D40" t="s" s="20">
-        <v>108</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="H40" s="22">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="H40" t="s" s="20">
+        <v>110</v>
       </c>
       <c r="I40" t="s" s="20">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="K40" t="s" s="20">
+      <c r="K40" s="22">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="M40" t="s" s="24">
         <v>28</v>
       </c>
-      <c r="L40" s="22">
-        <v>1</v>
-      </c>
-      <c r="M40" s="25"/>
-      <c r="N40" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="O40" s="22">
+      <c r="N40" s="22">
         <v>0</v>
       </c>
+      <c r="O40" s="23"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="25"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="5"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="5"/>
     </row>
     <row r="41" ht="15.6" customHeight="1">
       <c r="A41" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B41" t="s" s="6">
-        <v>88</v>
-      </c>
       <c r="C41" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s" s="20">
         <v>107</v>
-      </c>
-      <c r="D41" t="s" s="20">
-        <v>108</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="H41" s="22">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s" s="28">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s" s="28">
+        <v>112</v>
+      </c>
+      <c r="I41" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="K41" s="22">
+        <v>1</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="N41" s="22">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s" s="20">
         <v>113</v>
       </c>
-      <c r="J41" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K41" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="L41" s="22">
+      <c r="P41" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="22">
         <v>1</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="N41" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="O41" s="22">
+      <c r="R41" s="23"/>
+      <c r="S41" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="T41" s="22">
         <v>3</v>
       </c>
-      <c r="P41" s="25"/>
-      <c r="Q41" t="s" s="23">
-        <v>34</v>
-      </c>
-      <c r="R41" s="22">
-        <v>1</v>
-      </c>
-      <c r="S41" s="25"/>
-      <c r="T41" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U41" s="22">
-        <v>3</v>
-      </c>
-      <c r="V41" s="25"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="5"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
@@ -4731,8 +4614,8 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -4747,7 +4630,6 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
@@ -4773,7 +4655,6 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
@@ -4799,7 +4680,6 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
@@ -4825,7 +4705,6 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
@@ -4851,7 +4730,6 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
@@ -4877,7 +4755,6 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
@@ -4903,7 +4780,6 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
@@ -4929,7 +4805,6 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
@@ -4955,7 +4830,6 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
@@ -4981,7 +4855,6 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
@@ -5007,7 +4880,6 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
@@ -5033,7 +4905,6 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
@@ -5059,7 +4930,6 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
@@ -5085,7 +4955,6 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
@@ -5111,7 +4980,6 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
@@ -5137,7 +5005,6 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
@@ -5163,7 +5030,6 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
@@ -5189,7 +5055,6 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
@@ -5215,7 +5080,6 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
@@ -5241,7 +5105,6 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
@@ -5267,7 +5130,6 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
@@ -5293,7 +5155,6 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
@@ -5319,7 +5180,6 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
@@ -5345,7 +5205,6 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
@@ -5371,7 +5230,6 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
@@ -5397,7 +5255,6 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
@@ -5423,7 +5280,6 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
@@ -5449,7 +5305,6 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
@@ -5475,7 +5330,6 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
@@ -5501,7 +5355,6 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
@@ -5527,7 +5380,6 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
@@ -5553,7 +5405,6 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
@@ -5579,7 +5430,6 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
@@ -5605,7 +5455,6 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
@@ -5631,7 +5480,6 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
@@ -5657,7 +5505,6 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
@@ -5683,7 +5530,6 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
@@ -5709,7 +5555,6 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
@@ -5735,7 +5580,6 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
@@ -5761,7 +5605,6 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
@@ -5787,7 +5630,6 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
@@ -5813,7 +5655,6 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
@@ -5839,7 +5680,6 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
@@ -5865,7 +5705,6 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
@@ -5891,7 +5730,6 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
@@ -5917,7 +5755,6 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
@@ -5943,7 +5780,6 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
@@ -5969,7 +5805,6 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
@@ -5995,7 +5830,6 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
@@ -6021,7 +5855,6 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
@@ -6047,7 +5880,6 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
@@ -6073,7 +5905,6 @@
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
@@ -6099,7 +5930,6 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
@@ -6125,7 +5955,6 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
@@ -6151,7 +5980,6 @@
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
@@ -6177,7 +6005,6 @@
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
-      <c r="X97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
@@ -6203,7 +6030,6 @@
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
@@ -6229,7 +6055,6 @@
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
@@ -6255,7 +6080,6 @@
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
@@ -6281,7 +6105,6 @@
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
@@ -6307,7 +6130,6 @@
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
@@ -6333,7 +6155,6 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
@@ -6359,7 +6180,6 @@
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
@@ -6385,7 +6205,6 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
@@ -6411,7 +6230,6 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
@@ -6437,7 +6255,6 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
@@ -6463,7 +6280,6 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
@@ -6489,7 +6305,6 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
-      <c r="X109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
@@ -6515,7 +6330,6 @@
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
@@ -6541,7 +6355,6 @@
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
@@ -6567,7 +6380,6 @@
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
@@ -6593,7 +6405,6 @@
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
@@ -6619,7 +6430,6 @@
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
@@ -6645,7 +6455,6 @@
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
@@ -6671,7 +6480,6 @@
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
@@ -6697,7 +6505,6 @@
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
@@ -6723,7 +6530,6 @@
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
@@ -6749,7 +6555,6 @@
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
@@ -6775,7 +6580,6 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
@@ -6801,7 +6605,6 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
@@ -6827,7 +6630,6 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
@@ -6853,7 +6655,6 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
@@ -6879,7 +6680,6 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
@@ -6905,7 +6705,6 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
@@ -6931,7 +6730,6 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
@@ -6957,7 +6755,6 @@
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
@@ -6983,7 +6780,6 @@
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
@@ -7009,7 +6805,6 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
@@ -7035,7 +6830,6 @@
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
@@ -7061,7 +6855,6 @@
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
@@ -7087,7 +6880,6 @@
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
@@ -7113,7 +6905,6 @@
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
@@ -7139,7 +6930,6 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
@@ -7165,7 +6955,6 @@
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
@@ -7191,7 +6980,6 @@
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
@@ -7217,7 +7005,6 @@
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
@@ -7243,7 +7030,6 @@
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
@@ -7269,7 +7055,6 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
@@ -7295,7 +7080,6 @@
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
@@ -7321,7 +7105,6 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
@@ -7347,7 +7130,6 @@
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
@@ -7373,7 +7155,6 @@
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
@@ -7399,7 +7180,6 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
@@ -7425,7 +7205,6 @@
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
@@ -7451,7 +7230,6 @@
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
@@ -7477,7 +7255,6 @@
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
@@ -7503,7 +7280,6 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
@@ -7529,7 +7305,6 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
@@ -7555,7 +7330,6 @@
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
@@ -7581,7 +7355,6 @@
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
-      <c r="X151" s="4"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
@@ -7607,7 +7380,6 @@
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
-      <c r="X152" s="4"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
@@ -7633,7 +7405,6 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
@@ -7659,7 +7430,6 @@
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
-      <c r="X154" s="4"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
@@ -7685,7 +7455,6 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
@@ -7711,7 +7480,6 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
-      <c r="X156" s="4"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
@@ -7737,7 +7505,6 @@
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
-      <c r="X157" s="4"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
@@ -7763,7 +7530,6 @@
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
-      <c r="X158" s="4"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
@@ -7789,7 +7555,6 @@
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
@@ -7815,7 +7580,6 @@
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
-      <c r="X160" s="4"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
@@ -7841,7 +7605,6 @@
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
-      <c r="X161" s="4"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
@@ -7867,7 +7630,6 @@
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
-      <c r="X162" s="4"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
@@ -7893,7 +7655,6 @@
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
-      <c r="X163" s="4"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
@@ -7919,7 +7680,6 @@
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
@@ -7945,7 +7705,6 @@
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
@@ -7971,7 +7730,6 @@
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
-      <c r="X166" s="4"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
@@ -7997,7 +7755,6 @@
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
-      <c r="X167" s="4"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
@@ -8023,7 +7780,6 @@
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
@@ -8049,7 +7805,6 @@
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
-      <c r="X169" s="4"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
@@ -8075,7 +7830,6 @@
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
@@ -8101,7 +7855,6 @@
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
@@ -8127,7 +7880,6 @@
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
-      <c r="X172" s="4"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
@@ -8153,7 +7905,6 @@
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
@@ -8179,7 +7930,6 @@
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
-      <c r="X174" s="4"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
@@ -8205,7 +7955,6 @@
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
-      <c r="X175" s="4"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
@@ -8231,7 +7980,6 @@
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
-      <c r="X176" s="4"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
@@ -8257,7 +8005,6 @@
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
-      <c r="X177" s="4"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
@@ -8283,7 +8030,6 @@
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
-      <c r="X178" s="4"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
@@ -8309,7 +8055,6 @@
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
-      <c r="X179" s="4"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
@@ -8335,7 +8080,6 @@
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
-      <c r="X180" s="4"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
@@ -8361,7 +8105,6 @@
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
-      <c r="X181" s="4"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
@@ -8387,7 +8130,6 @@
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
-      <c r="X182" s="4"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
@@ -8413,7 +8155,6 @@
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
-      <c r="X183" s="4"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
@@ -8439,7 +8180,6 @@
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
-      <c r="X184" s="4"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
@@ -8465,7 +8205,6 @@
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
-      <c r="X185" s="4"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
@@ -8491,7 +8230,6 @@
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
       <c r="W186" s="4"/>
-      <c r="X186" s="4"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
@@ -8517,7 +8255,6 @@
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
       <c r="W187" s="4"/>
-      <c r="X187" s="4"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
@@ -8543,7 +8280,6 @@
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
       <c r="W188" s="4"/>
-      <c r="X188" s="4"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
@@ -8569,7 +8305,6 @@
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
       <c r="W189" s="4"/>
-      <c r="X189" s="4"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
@@ -8595,7 +8330,6 @@
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
-      <c r="X190" s="4"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
@@ -8621,7 +8355,6 @@
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
-      <c r="X191" s="4"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
@@ -8647,7 +8380,6 @@
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
-      <c r="X192" s="4"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
@@ -8673,7 +8405,6 @@
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
-      <c r="X193" s="4"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
@@ -8699,7 +8430,6 @@
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
-      <c r="X194" s="4"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
@@ -8725,7 +8455,6 @@
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
       <c r="W195" s="4"/>
-      <c r="X195" s="4"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
@@ -8751,7 +8480,6 @@
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
       <c r="W196" s="4"/>
-      <c r="X196" s="4"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
@@ -8777,7 +8505,6 @@
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
-      <c r="X197" s="4"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
@@ -8803,7 +8530,6 @@
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
-      <c r="X198" s="4"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
@@ -8829,7 +8555,6 @@
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
       <c r="W199" s="4"/>
-      <c r="X199" s="4"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
@@ -8855,7 +8580,6 @@
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
-      <c r="X200" s="4"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
@@ -8881,7 +8605,6 @@
       <c r="U201" s="4"/>
       <c r="V201" s="4"/>
       <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
@@ -8907,7 +8630,6 @@
       <c r="U202" s="4"/>
       <c r="V202" s="4"/>
       <c r="W202" s="4"/>
-      <c r="X202" s="4"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
@@ -8933,7 +8655,6 @@
       <c r="U203" s="4"/>
       <c r="V203" s="4"/>
       <c r="W203" s="4"/>
-      <c r="X203" s="4"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
@@ -8959,7 +8680,6 @@
       <c r="U204" s="4"/>
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
-      <c r="X204" s="4"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
@@ -8985,7 +8705,6 @@
       <c r="U205" s="4"/>
       <c r="V205" s="4"/>
       <c r="W205" s="4"/>
-      <c r="X205" s="4"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
@@ -9011,7 +8730,6 @@
       <c r="U206" s="4"/>
       <c r="V206" s="4"/>
       <c r="W206" s="4"/>
-      <c r="X206" s="4"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
@@ -9037,7 +8755,6 @@
       <c r="U207" s="4"/>
       <c r="V207" s="4"/>
       <c r="W207" s="4"/>
-      <c r="X207" s="4"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
@@ -9063,7 +8780,6 @@
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
       <c r="W208" s="4"/>
-      <c r="X208" s="4"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
@@ -9089,7 +8805,6 @@
       <c r="U209" s="4"/>
       <c r="V209" s="4"/>
       <c r="W209" s="4"/>
-      <c r="X209" s="4"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
@@ -9115,7 +8830,6 @@
       <c r="U210" s="4"/>
       <c r="V210" s="4"/>
       <c r="W210" s="4"/>
-      <c r="X210" s="4"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
@@ -9141,7 +8855,6 @@
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
       <c r="W211" s="4"/>
-      <c r="X211" s="4"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
@@ -9167,7 +8880,6 @@
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
       <c r="W212" s="4"/>
-      <c r="X212" s="4"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
@@ -9193,7 +8905,6 @@
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
       <c r="W213" s="4"/>
-      <c r="X213" s="4"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
@@ -9219,7 +8930,6 @@
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
       <c r="W214" s="4"/>
-      <c r="X214" s="4"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
@@ -9245,7 +8955,6 @@
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
       <c r="W215" s="4"/>
-      <c r="X215" s="4"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
@@ -9271,7 +8980,6 @@
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
       <c r="W216" s="4"/>
-      <c r="X216" s="4"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
@@ -9297,7 +9005,6 @@
       <c r="U217" s="4"/>
       <c r="V217" s="4"/>
       <c r="W217" s="4"/>
-      <c r="X217" s="4"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
@@ -9323,7 +9030,6 @@
       <c r="U218" s="4"/>
       <c r="V218" s="4"/>
       <c r="W218" s="4"/>
-      <c r="X218" s="4"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
@@ -9349,7 +9055,6 @@
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
       <c r="W219" s="4"/>
-      <c r="X219" s="4"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
@@ -9375,7 +9080,6 @@
       <c r="U220" s="4"/>
       <c r="V220" s="4"/>
       <c r="W220" s="4"/>
-      <c r="X220" s="4"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
@@ -9401,7 +9105,6 @@
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
       <c r="W221" s="4"/>
-      <c r="X221" s="4"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="4"/>
@@ -9427,7 +9130,6 @@
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
       <c r="W222" s="4"/>
-      <c r="X222" s="4"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="4"/>
@@ -9453,7 +9155,6 @@
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
       <c r="W223" s="4"/>
-      <c r="X223" s="4"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="4"/>
@@ -9479,7 +9180,6 @@
       <c r="U224" s="4"/>
       <c r="V224" s="4"/>
       <c r="W224" s="4"/>
-      <c r="X224" s="4"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="4"/>
@@ -9505,7 +9205,6 @@
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
       <c r="W225" s="4"/>
-      <c r="X225" s="4"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="4"/>
@@ -9531,7 +9230,6 @@
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
       <c r="W226" s="4"/>
-      <c r="X226" s="4"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="4"/>
@@ -9557,7 +9255,6 @@
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
       <c r="W227" s="4"/>
-      <c r="X227" s="4"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="4"/>
@@ -9583,7 +9280,6 @@
       <c r="U228" s="4"/>
       <c r="V228" s="4"/>
       <c r="W228" s="4"/>
-      <c r="X228" s="4"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="4"/>
@@ -9609,7 +9305,6 @@
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
       <c r="W229" s="4"/>
-      <c r="X229" s="4"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="4"/>
@@ -9635,7 +9330,6 @@
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
       <c r="W230" s="4"/>
-      <c r="X230" s="4"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="4"/>
@@ -9661,7 +9355,6 @@
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
       <c r="W231" s="4"/>
-      <c r="X231" s="4"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="4"/>
@@ -9687,7 +9380,6 @@
       <c r="U232" s="4"/>
       <c r="V232" s="4"/>
       <c r="W232" s="4"/>
-      <c r="X232" s="4"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="4"/>
@@ -9713,7 +9405,6 @@
       <c r="U233" s="4"/>
       <c r="V233" s="4"/>
       <c r="W233" s="4"/>
-      <c r="X233" s="4"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="4"/>
@@ -9739,7 +9430,6 @@
       <c r="U234" s="4"/>
       <c r="V234" s="4"/>
       <c r="W234" s="4"/>
-      <c r="X234" s="4"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="4"/>
@@ -9765,7 +9455,6 @@
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
       <c r="W235" s="4"/>
-      <c r="X235" s="4"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="4"/>
@@ -9791,7 +9480,6 @@
       <c r="U236" s="4"/>
       <c r="V236" s="4"/>
       <c r="W236" s="4"/>
-      <c r="X236" s="4"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
@@ -9817,7 +9505,6 @@
       <c r="U237" s="4"/>
       <c r="V237" s="4"/>
       <c r="W237" s="4"/>
-      <c r="X237" s="4"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
@@ -9843,7 +9530,6 @@
       <c r="U238" s="4"/>
       <c r="V238" s="4"/>
       <c r="W238" s="4"/>
-      <c r="X238" s="4"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="4"/>
@@ -9869,7 +9555,6 @@
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
       <c r="W239" s="4"/>
-      <c r="X239" s="4"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="4"/>
@@ -9895,7 +9580,6 @@
       <c r="U240" s="4"/>
       <c r="V240" s="4"/>
       <c r="W240" s="4"/>
-      <c r="X240" s="4"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4"/>
@@ -9921,7 +9605,6 @@
       <c r="U241" s="4"/>
       <c r="V241" s="4"/>
       <c r="W241" s="4"/>
-      <c r="X241" s="4"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="4"/>
@@ -9947,7 +9630,6 @@
       <c r="U242" s="4"/>
       <c r="V242" s="4"/>
       <c r="W242" s="4"/>
-      <c r="X242" s="4"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="4"/>
@@ -9973,7 +9655,6 @@
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
       <c r="W243" s="4"/>
-      <c r="X243" s="4"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="4"/>
@@ -9999,7 +9680,6 @@
       <c r="U244" s="4"/>
       <c r="V244" s="4"/>
       <c r="W244" s="4"/>
-      <c r="X244" s="4"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="4"/>
@@ -10025,7 +9705,6 @@
       <c r="U245" s="4"/>
       <c r="V245" s="4"/>
       <c r="W245" s="4"/>
-      <c r="X245" s="4"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="4"/>
@@ -10051,7 +9730,6 @@
       <c r="U246" s="4"/>
       <c r="V246" s="4"/>
       <c r="W246" s="4"/>
-      <c r="X246" s="4"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="4"/>
@@ -10077,7 +9755,6 @@
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
       <c r="W247" s="4"/>
-      <c r="X247" s="4"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="4"/>
@@ -10103,7 +9780,6 @@
       <c r="U248" s="4"/>
       <c r="V248" s="4"/>
       <c r="W248" s="4"/>
-      <c r="X248" s="4"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4"/>
@@ -10129,7 +9805,6 @@
       <c r="U249" s="4"/>
       <c r="V249" s="4"/>
       <c r="W249" s="4"/>
-      <c r="X249" s="4"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="4"/>
@@ -10155,7 +9830,6 @@
       <c r="U250" s="4"/>
       <c r="V250" s="4"/>
       <c r="W250" s="4"/>
-      <c r="X250" s="4"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="4"/>
@@ -10181,7 +9855,6 @@
       <c r="U251" s="4"/>
       <c r="V251" s="4"/>
       <c r="W251" s="4"/>
-      <c r="X251" s="4"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="4"/>
@@ -10207,7 +9880,6 @@
       <c r="U252" s="4"/>
       <c r="V252" s="4"/>
       <c r="W252" s="4"/>
-      <c r="X252" s="4"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="4"/>
@@ -10233,7 +9905,6 @@
       <c r="U253" s="4"/>
       <c r="V253" s="4"/>
       <c r="W253" s="4"/>
-      <c r="X253" s="4"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
@@ -10259,7 +9930,6 @@
       <c r="U254" s="4"/>
       <c r="V254" s="4"/>
       <c r="W254" s="4"/>
-      <c r="X254" s="4"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
@@ -10285,7 +9955,6 @@
       <c r="U255" s="4"/>
       <c r="V255" s="4"/>
       <c r="W255" s="4"/>
-      <c r="X255" s="4"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
@@ -10311,7 +9980,6 @@
       <c r="U256" s="4"/>
       <c r="V256" s="4"/>
       <c r="W256" s="4"/>
-      <c r="X256" s="4"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
@@ -10337,7 +10005,6 @@
       <c r="U257" s="4"/>
       <c r="V257" s="4"/>
       <c r="W257" s="4"/>
-      <c r="X257" s="4"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
@@ -10363,7 +10030,6 @@
       <c r="U258" s="4"/>
       <c r="V258" s="4"/>
       <c r="W258" s="4"/>
-      <c r="X258" s="4"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
@@ -10389,7 +10055,6 @@
       <c r="U259" s="4"/>
       <c r="V259" s="4"/>
       <c r="W259" s="4"/>
-      <c r="X259" s="4"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
@@ -10415,7 +10080,6 @@
       <c r="U260" s="4"/>
       <c r="V260" s="4"/>
       <c r="W260" s="4"/>
-      <c r="X260" s="4"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
@@ -10441,7 +10105,6 @@
       <c r="U261" s="4"/>
       <c r="V261" s="4"/>
       <c r="W261" s="4"/>
-      <c r="X261" s="4"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
@@ -10467,7 +10130,6 @@
       <c r="U262" s="4"/>
       <c r="V262" s="4"/>
       <c r="W262" s="4"/>
-      <c r="X262" s="4"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="4"/>
@@ -10493,7 +10155,6 @@
       <c r="U263" s="4"/>
       <c r="V263" s="4"/>
       <c r="W263" s="4"/>
-      <c r="X263" s="4"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="4"/>
@@ -10519,7 +10180,6 @@
       <c r="U264" s="4"/>
       <c r="V264" s="4"/>
       <c r="W264" s="4"/>
-      <c r="X264" s="4"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="4"/>
@@ -10545,7 +10205,6 @@
       <c r="U265" s="4"/>
       <c r="V265" s="4"/>
       <c r="W265" s="4"/>
-      <c r="X265" s="4"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="4"/>
@@ -10571,7 +10230,6 @@
       <c r="U266" s="4"/>
       <c r="V266" s="4"/>
       <c r="W266" s="4"/>
-      <c r="X266" s="4"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="4"/>
@@ -10597,7 +10255,6 @@
       <c r="U267" s="4"/>
       <c r="V267" s="4"/>
       <c r="W267" s="4"/>
-      <c r="X267" s="4"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="4"/>
@@ -10623,7 +10280,6 @@
       <c r="U268" s="4"/>
       <c r="V268" s="4"/>
       <c r="W268" s="4"/>
-      <c r="X268" s="4"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="4"/>
@@ -10649,7 +10305,6 @@
       <c r="U269" s="4"/>
       <c r="V269" s="4"/>
       <c r="W269" s="4"/>
-      <c r="X269" s="4"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="4"/>
@@ -10675,7 +10330,6 @@
       <c r="U270" s="4"/>
       <c r="V270" s="4"/>
       <c r="W270" s="4"/>
-      <c r="X270" s="4"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="4"/>
@@ -10701,7 +10355,6 @@
       <c r="U271" s="4"/>
       <c r="V271" s="4"/>
       <c r="W271" s="4"/>
-      <c r="X271" s="4"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="4"/>
@@ -10727,7 +10380,6 @@
       <c r="U272" s="4"/>
       <c r="V272" s="4"/>
       <c r="W272" s="4"/>
-      <c r="X272" s="4"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="4"/>
@@ -10753,7 +10405,6 @@
       <c r="U273" s="4"/>
       <c r="V273" s="4"/>
       <c r="W273" s="4"/>
-      <c r="X273" s="4"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="4"/>
@@ -10779,7 +10430,6 @@
       <c r="U274" s="4"/>
       <c r="V274" s="4"/>
       <c r="W274" s="4"/>
-      <c r="X274" s="4"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="4"/>
@@ -10805,7 +10455,6 @@
       <c r="U275" s="4"/>
       <c r="V275" s="4"/>
       <c r="W275" s="4"/>
-      <c r="X275" s="4"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="4"/>
@@ -10831,7 +10480,6 @@
       <c r="U276" s="4"/>
       <c r="V276" s="4"/>
       <c r="W276" s="4"/>
-      <c r="X276" s="4"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="4"/>
@@ -10857,7 +10505,6 @@
       <c r="U277" s="4"/>
       <c r="V277" s="4"/>
       <c r="W277" s="4"/>
-      <c r="X277" s="4"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="4"/>
@@ -10883,7 +10530,6 @@
       <c r="U278" s="4"/>
       <c r="V278" s="4"/>
       <c r="W278" s="4"/>
-      <c r="X278" s="4"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="4"/>
@@ -10909,7 +10555,6 @@
       <c r="U279" s="4"/>
       <c r="V279" s="4"/>
       <c r="W279" s="4"/>
-      <c r="X279" s="4"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="4"/>
@@ -10935,7 +10580,6 @@
       <c r="U280" s="4"/>
       <c r="V280" s="4"/>
       <c r="W280" s="4"/>
-      <c r="X280" s="4"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="4"/>
@@ -10961,7 +10605,6 @@
       <c r="U281" s="4"/>
       <c r="V281" s="4"/>
       <c r="W281" s="4"/>
-      <c r="X281" s="4"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="4"/>
@@ -10987,7 +10630,6 @@
       <c r="U282" s="4"/>
       <c r="V282" s="4"/>
       <c r="W282" s="4"/>
-      <c r="X282" s="4"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="4"/>
@@ -11013,7 +10655,6 @@
       <c r="U283" s="4"/>
       <c r="V283" s="4"/>
       <c r="W283" s="4"/>
-      <c r="X283" s="4"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="4"/>
@@ -11039,7 +10680,6 @@
       <c r="U284" s="4"/>
       <c r="V284" s="4"/>
       <c r="W284" s="4"/>
-      <c r="X284" s="4"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="4"/>
@@ -11065,7 +10705,6 @@
       <c r="U285" s="4"/>
       <c r="V285" s="4"/>
       <c r="W285" s="4"/>
-      <c r="X285" s="4"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="4"/>
@@ -11091,7 +10730,6 @@
       <c r="U286" s="4"/>
       <c r="V286" s="4"/>
       <c r="W286" s="4"/>
-      <c r="X286" s="4"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="4"/>
@@ -11117,7 +10755,6 @@
       <c r="U287" s="4"/>
       <c r="V287" s="4"/>
       <c r="W287" s="4"/>
-      <c r="X287" s="4"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="4"/>
@@ -11143,7 +10780,6 @@
       <c r="U288" s="4"/>
       <c r="V288" s="4"/>
       <c r="W288" s="4"/>
-      <c r="X288" s="4"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="4"/>
@@ -11169,7 +10805,6 @@
       <c r="U289" s="4"/>
       <c r="V289" s="4"/>
       <c r="W289" s="4"/>
-      <c r="X289" s="4"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="4"/>
@@ -11195,7 +10830,6 @@
       <c r="U290" s="4"/>
       <c r="V290" s="4"/>
       <c r="W290" s="4"/>
-      <c r="X290" s="4"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="4"/>
@@ -11221,7 +10855,6 @@
       <c r="U291" s="4"/>
       <c r="V291" s="4"/>
       <c r="W291" s="4"/>
-      <c r="X291" s="4"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="4"/>
@@ -11247,7 +10880,6 @@
       <c r="U292" s="4"/>
       <c r="V292" s="4"/>
       <c r="W292" s="4"/>
-      <c r="X292" s="4"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="4"/>
@@ -11273,7 +10905,6 @@
       <c r="U293" s="4"/>
       <c r="V293" s="4"/>
       <c r="W293" s="4"/>
-      <c r="X293" s="4"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="4"/>
@@ -11299,7 +10930,6 @@
       <c r="U294" s="4"/>
       <c r="V294" s="4"/>
       <c r="W294" s="4"/>
-      <c r="X294" s="4"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="4"/>
@@ -11325,7 +10955,6 @@
       <c r="U295" s="4"/>
       <c r="V295" s="4"/>
       <c r="W295" s="4"/>
-      <c r="X295" s="4"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="4"/>
@@ -11351,7 +10980,6 @@
       <c r="U296" s="4"/>
       <c r="V296" s="4"/>
       <c r="W296" s="4"/>
-      <c r="X296" s="4"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="4"/>
@@ -11377,7 +11005,6 @@
       <c r="U297" s="4"/>
       <c r="V297" s="4"/>
       <c r="W297" s="4"/>
-      <c r="X297" s="4"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="4"/>
@@ -11403,7 +11030,6 @@
       <c r="U298" s="4"/>
       <c r="V298" s="4"/>
       <c r="W298" s="4"/>
-      <c r="X298" s="4"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="4"/>
@@ -11429,7 +11055,6 @@
       <c r="U299" s="4"/>
       <c r="V299" s="4"/>
       <c r="W299" s="4"/>
-      <c r="X299" s="4"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="4"/>
@@ -11455,7 +11080,6 @@
       <c r="U300" s="4"/>
       <c r="V300" s="4"/>
       <c r="W300" s="4"/>
-      <c r="X300" s="4"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="4"/>
@@ -11481,7 +11105,6 @@
       <c r="U301" s="4"/>
       <c r="V301" s="4"/>
       <c r="W301" s="4"/>
-      <c r="X301" s="4"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="4"/>
@@ -11507,7 +11130,6 @@
       <c r="U302" s="4"/>
       <c r="V302" s="4"/>
       <c r="W302" s="4"/>
-      <c r="X302" s="4"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="4"/>
@@ -11533,7 +11155,6 @@
       <c r="U303" s="4"/>
       <c r="V303" s="4"/>
       <c r="W303" s="4"/>
-      <c r="X303" s="4"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="4"/>
@@ -11559,7 +11180,6 @@
       <c r="U304" s="4"/>
       <c r="V304" s="4"/>
       <c r="W304" s="4"/>
-      <c r="X304" s="4"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="4"/>
@@ -11585,7 +11205,6 @@
       <c r="U305" s="4"/>
       <c r="V305" s="4"/>
       <c r="W305" s="4"/>
-      <c r="X305" s="4"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="4"/>
@@ -11611,7 +11230,6 @@
       <c r="U306" s="4"/>
       <c r="V306" s="4"/>
       <c r="W306" s="4"/>
-      <c r="X306" s="4"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="4"/>
@@ -11637,7 +11255,6 @@
       <c r="U307" s="4"/>
       <c r="V307" s="4"/>
       <c r="W307" s="4"/>
-      <c r="X307" s="4"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="4"/>
@@ -11663,7 +11280,6 @@
       <c r="U308" s="4"/>
       <c r="V308" s="4"/>
       <c r="W308" s="4"/>
-      <c r="X308" s="4"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="4"/>
@@ -11689,7 +11305,6 @@
       <c r="U309" s="4"/>
       <c r="V309" s="4"/>
       <c r="W309" s="4"/>
-      <c r="X309" s="4"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="4"/>
@@ -11715,7 +11330,6 @@
       <c r="U310" s="4"/>
       <c r="V310" s="4"/>
       <c r="W310" s="4"/>
-      <c r="X310" s="4"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="4"/>
@@ -11741,7 +11355,6 @@
       <c r="U311" s="4"/>
       <c r="V311" s="4"/>
       <c r="W311" s="4"/>
-      <c r="X311" s="4"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="4"/>
@@ -11767,7 +11380,6 @@
       <c r="U312" s="4"/>
       <c r="V312" s="4"/>
       <c r="W312" s="4"/>
-      <c r="X312" s="4"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="4"/>
@@ -11793,7 +11405,6 @@
       <c r="U313" s="4"/>
       <c r="V313" s="4"/>
       <c r="W313" s="4"/>
-      <c r="X313" s="4"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="4"/>
@@ -11819,7 +11430,6 @@
       <c r="U314" s="4"/>
       <c r="V314" s="4"/>
       <c r="W314" s="4"/>
-      <c r="X314" s="4"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="4"/>
@@ -11845,7 +11455,6 @@
       <c r="U315" s="4"/>
       <c r="V315" s="4"/>
       <c r="W315" s="4"/>
-      <c r="X315" s="4"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="4"/>
@@ -11871,7 +11480,6 @@
       <c r="U316" s="4"/>
       <c r="V316" s="4"/>
       <c r="W316" s="4"/>
-      <c r="X316" s="4"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="4"/>
@@ -11897,7 +11505,6 @@
       <c r="U317" s="4"/>
       <c r="V317" s="4"/>
       <c r="W317" s="4"/>
-      <c r="X317" s="4"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="4"/>
@@ -11923,7 +11530,6 @@
       <c r="U318" s="4"/>
       <c r="V318" s="4"/>
       <c r="W318" s="4"/>
-      <c r="X318" s="4"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="4"/>
@@ -11949,7 +11555,6 @@
       <c r="U319" s="4"/>
       <c r="V319" s="4"/>
       <c r="W319" s="4"/>
-      <c r="X319" s="4"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="4"/>
@@ -11975,7 +11580,6 @@
       <c r="U320" s="4"/>
       <c r="V320" s="4"/>
       <c r="W320" s="4"/>
-      <c r="X320" s="4"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="4"/>
@@ -12001,7 +11605,6 @@
       <c r="U321" s="4"/>
       <c r="V321" s="4"/>
       <c r="W321" s="4"/>
-      <c r="X321" s="4"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="4"/>
@@ -12027,7 +11630,6 @@
       <c r="U322" s="4"/>
       <c r="V322" s="4"/>
       <c r="W322" s="4"/>
-      <c r="X322" s="4"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="4"/>
@@ -12053,7 +11655,6 @@
       <c r="U323" s="4"/>
       <c r="V323" s="4"/>
       <c r="W323" s="4"/>
-      <c r="X323" s="4"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="4"/>
@@ -12079,7 +11680,6 @@
       <c r="U324" s="4"/>
       <c r="V324" s="4"/>
       <c r="W324" s="4"/>
-      <c r="X324" s="4"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="4"/>
@@ -12105,7 +11705,6 @@
       <c r="U325" s="4"/>
       <c r="V325" s="4"/>
       <c r="W325" s="4"/>
-      <c r="X325" s="4"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="4"/>
@@ -12131,7 +11730,6 @@
       <c r="U326" s="4"/>
       <c r="V326" s="4"/>
       <c r="W326" s="4"/>
-      <c r="X326" s="4"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="4"/>
@@ -12157,7 +11755,6 @@
       <c r="U327" s="4"/>
       <c r="V327" s="4"/>
       <c r="W327" s="4"/>
-      <c r="X327" s="4"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="4"/>
@@ -12183,7 +11780,6 @@
       <c r="U328" s="4"/>
       <c r="V328" s="4"/>
       <c r="W328" s="4"/>
-      <c r="X328" s="4"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="4"/>
@@ -12209,7 +11805,6 @@
       <c r="U329" s="4"/>
       <c r="V329" s="4"/>
       <c r="W329" s="4"/>
-      <c r="X329" s="4"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="4"/>
@@ -12235,7 +11830,6 @@
       <c r="U330" s="4"/>
       <c r="V330" s="4"/>
       <c r="W330" s="4"/>
-      <c r="X330" s="4"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="4"/>
@@ -12261,7 +11855,6 @@
       <c r="U331" s="4"/>
       <c r="V331" s="4"/>
       <c r="W331" s="4"/>
-      <c r="X331" s="4"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="4"/>
@@ -12287,7 +11880,6 @@
       <c r="U332" s="4"/>
       <c r="V332" s="4"/>
       <c r="W332" s="4"/>
-      <c r="X332" s="4"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="4"/>
@@ -12313,7 +11905,6 @@
       <c r="U333" s="4"/>
       <c r="V333" s="4"/>
       <c r="W333" s="4"/>
-      <c r="X333" s="4"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="4"/>
@@ -12339,7 +11930,6 @@
       <c r="U334" s="4"/>
       <c r="V334" s="4"/>
       <c r="W334" s="4"/>
-      <c r="X334" s="4"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="4"/>
@@ -12365,7 +11955,6 @@
       <c r="U335" s="4"/>
       <c r="V335" s="4"/>
       <c r="W335" s="4"/>
-      <c r="X335" s="4"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="4"/>
@@ -12391,7 +11980,6 @@
       <c r="U336" s="4"/>
       <c r="V336" s="4"/>
       <c r="W336" s="4"/>
-      <c r="X336" s="4"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="4"/>
@@ -12417,7 +12005,6 @@
       <c r="U337" s="4"/>
       <c r="V337" s="4"/>
       <c r="W337" s="4"/>
-      <c r="X337" s="4"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="4"/>
@@ -12443,7 +12030,6 @@
       <c r="U338" s="4"/>
       <c r="V338" s="4"/>
       <c r="W338" s="4"/>
-      <c r="X338" s="4"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="4"/>
@@ -12469,7 +12055,6 @@
       <c r="U339" s="4"/>
       <c r="V339" s="4"/>
       <c r="W339" s="4"/>
-      <c r="X339" s="4"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="4"/>
@@ -12495,7 +12080,6 @@
       <c r="U340" s="4"/>
       <c r="V340" s="4"/>
       <c r="W340" s="4"/>
-      <c r="X340" s="4"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="4"/>
@@ -12521,7 +12105,6 @@
       <c r="U341" s="4"/>
       <c r="V341" s="4"/>
       <c r="W341" s="4"/>
-      <c r="X341" s="4"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="4"/>
@@ -12547,7 +12130,6 @@
       <c r="U342" s="4"/>
       <c r="V342" s="4"/>
       <c r="W342" s="4"/>
-      <c r="X342" s="4"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="4"/>
@@ -12573,7 +12155,6 @@
       <c r="U343" s="4"/>
       <c r="V343" s="4"/>
       <c r="W343" s="4"/>
-      <c r="X343" s="4"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="4"/>
@@ -12599,7 +12180,6 @@
       <c r="U344" s="4"/>
       <c r="V344" s="4"/>
       <c r="W344" s="4"/>
-      <c r="X344" s="4"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="4"/>
@@ -12625,7 +12205,6 @@
       <c r="U345" s="4"/>
       <c r="V345" s="4"/>
       <c r="W345" s="4"/>
-      <c r="X345" s="4"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="4"/>
@@ -12651,7 +12230,6 @@
       <c r="U346" s="4"/>
       <c r="V346" s="4"/>
       <c r="W346" s="4"/>
-      <c r="X346" s="4"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="4"/>
@@ -12677,7 +12255,6 @@
       <c r="U347" s="4"/>
       <c r="V347" s="4"/>
       <c r="W347" s="4"/>
-      <c r="X347" s="4"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="4"/>
@@ -12703,7 +12280,6 @@
       <c r="U348" s="4"/>
       <c r="V348" s="4"/>
       <c r="W348" s="4"/>
-      <c r="X348" s="4"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="4"/>
@@ -12729,7 +12305,6 @@
       <c r="U349" s="4"/>
       <c r="V349" s="4"/>
       <c r="W349" s="4"/>
-      <c r="X349" s="4"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="4"/>
@@ -12755,7 +12330,6 @@
       <c r="U350" s="4"/>
       <c r="V350" s="4"/>
       <c r="W350" s="4"/>
-      <c r="X350" s="4"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="4"/>
@@ -12781,7 +12355,6 @@
       <c r="U351" s="4"/>
       <c r="V351" s="4"/>
       <c r="W351" s="4"/>
-      <c r="X351" s="4"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="4"/>
@@ -12807,7 +12380,6 @@
       <c r="U352" s="4"/>
       <c r="V352" s="4"/>
       <c r="W352" s="4"/>
-      <c r="X352" s="4"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="4"/>
@@ -12833,7 +12405,6 @@
       <c r="U353" s="4"/>
       <c r="V353" s="4"/>
       <c r="W353" s="4"/>
-      <c r="X353" s="4"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="4"/>
@@ -12859,7 +12430,6 @@
       <c r="U354" s="4"/>
       <c r="V354" s="4"/>
       <c r="W354" s="4"/>
-      <c r="X354" s="4"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="4"/>
@@ -12885,7 +12455,6 @@
       <c r="U355" s="4"/>
       <c r="V355" s="4"/>
       <c r="W355" s="4"/>
-      <c r="X355" s="4"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="4"/>
@@ -12911,7 +12480,6 @@
       <c r="U356" s="4"/>
       <c r="V356" s="4"/>
       <c r="W356" s="4"/>
-      <c r="X356" s="4"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="4"/>
@@ -12937,7 +12505,6 @@
       <c r="U357" s="4"/>
       <c r="V357" s="4"/>
       <c r="W357" s="4"/>
-      <c r="X357" s="4"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="4"/>
@@ -12963,7 +12530,6 @@
       <c r="U358" s="4"/>
       <c r="V358" s="4"/>
       <c r="W358" s="4"/>
-      <c r="X358" s="4"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="4"/>
@@ -12989,7 +12555,6 @@
       <c r="U359" s="4"/>
       <c r="V359" s="4"/>
       <c r="W359" s="4"/>
-      <c r="X359" s="4"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="4"/>
@@ -13015,7 +12580,6 @@
       <c r="U360" s="4"/>
       <c r="V360" s="4"/>
       <c r="W360" s="4"/>
-      <c r="X360" s="4"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="4"/>
@@ -13041,7 +12605,6 @@
       <c r="U361" s="4"/>
       <c r="V361" s="4"/>
       <c r="W361" s="4"/>
-      <c r="X361" s="4"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="4"/>
@@ -13067,7 +12630,6 @@
       <c r="U362" s="4"/>
       <c r="V362" s="4"/>
       <c r="W362" s="4"/>
-      <c r="X362" s="4"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="4"/>
@@ -13093,7 +12655,6 @@
       <c r="U363" s="4"/>
       <c r="V363" s="4"/>
       <c r="W363" s="4"/>
-      <c r="X363" s="4"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="4"/>
@@ -13119,7 +12680,6 @@
       <c r="U364" s="4"/>
       <c r="V364" s="4"/>
       <c r="W364" s="4"/>
-      <c r="X364" s="4"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="4"/>
@@ -13145,7 +12705,6 @@
       <c r="U365" s="4"/>
       <c r="V365" s="4"/>
       <c r="W365" s="4"/>
-      <c r="X365" s="4"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="4"/>
@@ -13171,7 +12730,6 @@
       <c r="U366" s="4"/>
       <c r="V366" s="4"/>
       <c r="W366" s="4"/>
-      <c r="X366" s="4"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="4"/>
@@ -13197,7 +12755,6 @@
       <c r="U367" s="4"/>
       <c r="V367" s="4"/>
       <c r="W367" s="4"/>
-      <c r="X367" s="4"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="4"/>
@@ -13223,7 +12780,6 @@
       <c r="U368" s="4"/>
       <c r="V368" s="4"/>
       <c r="W368" s="4"/>
-      <c r="X368" s="4"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="4"/>
@@ -13249,7 +12805,6 @@
       <c r="U369" s="4"/>
       <c r="V369" s="4"/>
       <c r="W369" s="4"/>
-      <c r="X369" s="4"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="4"/>
@@ -13275,7 +12830,6 @@
       <c r="U370" s="4"/>
       <c r="V370" s="4"/>
       <c r="W370" s="4"/>
-      <c r="X370" s="4"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="4"/>
@@ -13301,7 +12855,6 @@
       <c r="U371" s="4"/>
       <c r="V371" s="4"/>
       <c r="W371" s="4"/>
-      <c r="X371" s="4"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="4"/>
@@ -13327,7 +12880,6 @@
       <c r="U372" s="4"/>
       <c r="V372" s="4"/>
       <c r="W372" s="4"/>
-      <c r="X372" s="4"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="4"/>
@@ -13353,7 +12905,6 @@
       <c r="U373" s="4"/>
       <c r="V373" s="4"/>
       <c r="W373" s="4"/>
-      <c r="X373" s="4"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="4"/>
@@ -13379,7 +12930,6 @@
       <c r="U374" s="4"/>
       <c r="V374" s="4"/>
       <c r="W374" s="4"/>
-      <c r="X374" s="4"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="4"/>
@@ -13405,7 +12955,6 @@
       <c r="U375" s="4"/>
       <c r="V375" s="4"/>
       <c r="W375" s="4"/>
-      <c r="X375" s="4"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="4"/>
@@ -13431,7 +12980,6 @@
       <c r="U376" s="4"/>
       <c r="V376" s="4"/>
       <c r="W376" s="4"/>
-      <c r="X376" s="4"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="4"/>
@@ -13457,7 +13005,6 @@
       <c r="U377" s="4"/>
       <c r="V377" s="4"/>
       <c r="W377" s="4"/>
-      <c r="X377" s="4"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="4"/>
@@ -13483,7 +13030,6 @@
       <c r="U378" s="4"/>
       <c r="V378" s="4"/>
       <c r="W378" s="4"/>
-      <c r="X378" s="4"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="4"/>
@@ -13509,7 +13055,6 @@
       <c r="U379" s="4"/>
       <c r="V379" s="4"/>
       <c r="W379" s="4"/>
-      <c r="X379" s="4"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="4"/>
@@ -13535,7 +13080,6 @@
       <c r="U380" s="4"/>
       <c r="V380" s="4"/>
       <c r="W380" s="4"/>
-      <c r="X380" s="4"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="4"/>
@@ -13561,7 +13105,6 @@
       <c r="U381" s="4"/>
       <c r="V381" s="4"/>
       <c r="W381" s="4"/>
-      <c r="X381" s="4"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="4"/>
@@ -13587,7 +13130,6 @@
       <c r="U382" s="4"/>
       <c r="V382" s="4"/>
       <c r="W382" s="4"/>
-      <c r="X382" s="4"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="4"/>
@@ -13613,7 +13155,6 @@
       <c r="U383" s="4"/>
       <c r="V383" s="4"/>
       <c r="W383" s="4"/>
-      <c r="X383" s="4"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="4"/>
@@ -13639,7 +13180,6 @@
       <c r="U384" s="4"/>
       <c r="V384" s="4"/>
       <c r="W384" s="4"/>
-      <c r="X384" s="4"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="4"/>
@@ -13665,7 +13205,6 @@
       <c r="U385" s="4"/>
       <c r="V385" s="4"/>
       <c r="W385" s="4"/>
-      <c r="X385" s="4"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="4"/>
@@ -13691,7 +13230,6 @@
       <c r="U386" s="4"/>
       <c r="V386" s="4"/>
       <c r="W386" s="4"/>
-      <c r="X386" s="4"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="4"/>
@@ -13717,7 +13255,6 @@
       <c r="U387" s="4"/>
       <c r="V387" s="4"/>
       <c r="W387" s="4"/>
-      <c r="X387" s="4"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="4"/>
@@ -13743,7 +13280,6 @@
       <c r="U388" s="4"/>
       <c r="V388" s="4"/>
       <c r="W388" s="4"/>
-      <c r="X388" s="4"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="4"/>
@@ -13769,7 +13305,6 @@
       <c r="U389" s="4"/>
       <c r="V389" s="4"/>
       <c r="W389" s="4"/>
-      <c r="X389" s="4"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="4"/>
@@ -13795,7 +13330,6 @@
       <c r="U390" s="4"/>
       <c r="V390" s="4"/>
       <c r="W390" s="4"/>
-      <c r="X390" s="4"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="4"/>
@@ -13821,7 +13355,6 @@
       <c r="U391" s="4"/>
       <c r="V391" s="4"/>
       <c r="W391" s="4"/>
-      <c r="X391" s="4"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="4"/>
@@ -13847,7 +13380,6 @@
       <c r="U392" s="4"/>
       <c r="V392" s="4"/>
       <c r="W392" s="4"/>
-      <c r="X392" s="4"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="4"/>
@@ -13873,7 +13405,6 @@
       <c r="U393" s="4"/>
       <c r="V393" s="4"/>
       <c r="W393" s="4"/>
-      <c r="X393" s="4"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="4"/>
@@ -13899,7 +13430,6 @@
       <c r="U394" s="4"/>
       <c r="V394" s="4"/>
       <c r="W394" s="4"/>
-      <c r="X394" s="4"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="4"/>
@@ -13925,7 +13455,6 @@
       <c r="U395" s="4"/>
       <c r="V395" s="4"/>
       <c r="W395" s="4"/>
-      <c r="X395" s="4"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="4"/>
@@ -13951,7 +13480,6 @@
       <c r="U396" s="4"/>
       <c r="V396" s="4"/>
       <c r="W396" s="4"/>
-      <c r="X396" s="4"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="4"/>
@@ -13977,7 +13505,6 @@
       <c r="U397" s="4"/>
       <c r="V397" s="4"/>
       <c r="W397" s="4"/>
-      <c r="X397" s="4"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="4"/>
@@ -14003,7 +13530,6 @@
       <c r="U398" s="4"/>
       <c r="V398" s="4"/>
       <c r="W398" s="4"/>
-      <c r="X398" s="4"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="4"/>
@@ -14029,7 +13555,6 @@
       <c r="U399" s="4"/>
       <c r="V399" s="4"/>
       <c r="W399" s="4"/>
-      <c r="X399" s="4"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="4"/>
@@ -14055,7 +13580,6 @@
       <c r="U400" s="4"/>
       <c r="V400" s="4"/>
       <c r="W400" s="4"/>
-      <c r="X400" s="4"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="4"/>
@@ -14081,7 +13605,6 @@
       <c r="U401" s="4"/>
       <c r="V401" s="4"/>
       <c r="W401" s="4"/>
-      <c r="X401" s="4"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="4"/>
@@ -14107,7 +13630,6 @@
       <c r="U402" s="4"/>
       <c r="V402" s="4"/>
       <c r="W402" s="4"/>
-      <c r="X402" s="4"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="4"/>
@@ -14133,7 +13655,6 @@
       <c r="U403" s="4"/>
       <c r="V403" s="4"/>
       <c r="W403" s="4"/>
-      <c r="X403" s="4"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="4"/>
@@ -14159,7 +13680,6 @@
       <c r="U404" s="4"/>
       <c r="V404" s="4"/>
       <c r="W404" s="4"/>
-      <c r="X404" s="4"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="4"/>
@@ -14185,7 +13705,6 @@
       <c r="U405" s="4"/>
       <c r="V405" s="4"/>
       <c r="W405" s="4"/>
-      <c r="X405" s="4"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="4"/>
@@ -14211,7 +13730,6 @@
       <c r="U406" s="4"/>
       <c r="V406" s="4"/>
       <c r="W406" s="4"/>
-      <c r="X406" s="4"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="4"/>
@@ -14237,7 +13755,6 @@
       <c r="U407" s="4"/>
       <c r="V407" s="4"/>
       <c r="W407" s="4"/>
-      <c r="X407" s="4"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="4"/>
@@ -14263,7 +13780,6 @@
       <c r="U408" s="4"/>
       <c r="V408" s="4"/>
       <c r="W408" s="4"/>
-      <c r="X408" s="4"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="4"/>
@@ -14289,7 +13805,6 @@
       <c r="U409" s="4"/>
       <c r="V409" s="4"/>
       <c r="W409" s="4"/>
-      <c r="X409" s="4"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="4"/>
@@ -14315,7 +13830,6 @@
       <c r="U410" s="4"/>
       <c r="V410" s="4"/>
       <c r="W410" s="4"/>
-      <c r="X410" s="4"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="4"/>
@@ -14341,7 +13855,6 @@
       <c r="U411" s="4"/>
       <c r="V411" s="4"/>
       <c r="W411" s="4"/>
-      <c r="X411" s="4"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="4"/>
@@ -14367,7 +13880,6 @@
       <c r="U412" s="4"/>
       <c r="V412" s="4"/>
       <c r="W412" s="4"/>
-      <c r="X412" s="4"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="4"/>
@@ -14393,7 +13905,6 @@
       <c r="U413" s="4"/>
       <c r="V413" s="4"/>
       <c r="W413" s="4"/>
-      <c r="X413" s="4"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="4"/>
@@ -14419,7 +13930,6 @@
       <c r="U414" s="4"/>
       <c r="V414" s="4"/>
       <c r="W414" s="4"/>
-      <c r="X414" s="4"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="4"/>
@@ -14445,7 +13955,6 @@
       <c r="U415" s="4"/>
       <c r="V415" s="4"/>
       <c r="W415" s="4"/>
-      <c r="X415" s="4"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="4"/>
@@ -14471,7 +13980,6 @@
       <c r="U416" s="4"/>
       <c r="V416" s="4"/>
       <c r="W416" s="4"/>
-      <c r="X416" s="4"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="4"/>
@@ -14497,7 +14005,6 @@
       <c r="U417" s="4"/>
       <c r="V417" s="4"/>
       <c r="W417" s="4"/>
-      <c r="X417" s="4"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="4"/>
@@ -14523,7 +14030,6 @@
       <c r="U418" s="4"/>
       <c r="V418" s="4"/>
       <c r="W418" s="4"/>
-      <c r="X418" s="4"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="4"/>
@@ -14549,7 +14055,6 @@
       <c r="U419" s="4"/>
       <c r="V419" s="4"/>
       <c r="W419" s="4"/>
-      <c r="X419" s="4"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="4"/>
@@ -14575,7 +14080,6 @@
       <c r="U420" s="4"/>
       <c r="V420" s="4"/>
       <c r="W420" s="4"/>
-      <c r="X420" s="4"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="4"/>
@@ -14601,7 +14105,6 @@
       <c r="U421" s="4"/>
       <c r="V421" s="4"/>
       <c r="W421" s="4"/>
-      <c r="X421" s="4"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="4"/>
@@ -14627,7 +14130,6 @@
       <c r="U422" s="4"/>
       <c r="V422" s="4"/>
       <c r="W422" s="4"/>
-      <c r="X422" s="4"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="4"/>
@@ -14653,7 +14155,6 @@
       <c r="U423" s="4"/>
       <c r="V423" s="4"/>
       <c r="W423" s="4"/>
-      <c r="X423" s="4"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="4"/>
@@ -14679,7 +14180,6 @@
       <c r="U424" s="4"/>
       <c r="V424" s="4"/>
       <c r="W424" s="4"/>
-      <c r="X424" s="4"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="4"/>
@@ -14705,7 +14205,6 @@
       <c r="U425" s="4"/>
       <c r="V425" s="4"/>
       <c r="W425" s="4"/>
-      <c r="X425" s="4"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="4"/>
@@ -14731,7 +14230,6 @@
       <c r="U426" s="4"/>
       <c r="V426" s="4"/>
       <c r="W426" s="4"/>
-      <c r="X426" s="4"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="4"/>
@@ -14757,7 +14255,6 @@
       <c r="U427" s="4"/>
       <c r="V427" s="4"/>
       <c r="W427" s="4"/>
-      <c r="X427" s="4"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="4"/>
@@ -14783,7 +14280,6 @@
       <c r="U428" s="4"/>
       <c r="V428" s="4"/>
       <c r="W428" s="4"/>
-      <c r="X428" s="4"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="4"/>
@@ -14809,7 +14305,6 @@
       <c r="U429" s="4"/>
       <c r="V429" s="4"/>
       <c r="W429" s="4"/>
-      <c r="X429" s="4"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="4"/>
@@ -14835,7 +14330,6 @@
       <c r="U430" s="4"/>
       <c r="V430" s="4"/>
       <c r="W430" s="4"/>
-      <c r="X430" s="4"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="4"/>
@@ -14861,7 +14355,6 @@
       <c r="U431" s="4"/>
       <c r="V431" s="4"/>
       <c r="W431" s="4"/>
-      <c r="X431" s="4"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="4"/>
@@ -14887,7 +14380,6 @@
       <c r="U432" s="4"/>
       <c r="V432" s="4"/>
       <c r="W432" s="4"/>
-      <c r="X432" s="4"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="4"/>
@@ -14913,7 +14405,6 @@
       <c r="U433" s="4"/>
       <c r="V433" s="4"/>
       <c r="W433" s="4"/>
-      <c r="X433" s="4"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="4"/>
@@ -14939,7 +14430,6 @@
       <c r="U434" s="4"/>
       <c r="V434" s="4"/>
       <c r="W434" s="4"/>
-      <c r="X434" s="4"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="4"/>
@@ -14965,7 +14455,6 @@
       <c r="U435" s="4"/>
       <c r="V435" s="4"/>
       <c r="W435" s="4"/>
-      <c r="X435" s="4"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="4"/>
@@ -14991,7 +14480,6 @@
       <c r="U436" s="4"/>
       <c r="V436" s="4"/>
       <c r="W436" s="4"/>
-      <c r="X436" s="4"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="4"/>
@@ -15017,7 +14505,6 @@
       <c r="U437" s="4"/>
       <c r="V437" s="4"/>
       <c r="W437" s="4"/>
-      <c r="X437" s="4"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="4"/>
@@ -15043,7 +14530,6 @@
       <c r="U438" s="4"/>
       <c r="V438" s="4"/>
       <c r="W438" s="4"/>
-      <c r="X438" s="4"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="4"/>
@@ -15069,7 +14555,6 @@
       <c r="U439" s="4"/>
       <c r="V439" s="4"/>
       <c r="W439" s="4"/>
-      <c r="X439" s="4"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="4"/>
@@ -15095,7 +14580,6 @@
       <c r="U440" s="4"/>
       <c r="V440" s="4"/>
       <c r="W440" s="4"/>
-      <c r="X440" s="4"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="4"/>
@@ -15121,7 +14605,6 @@
       <c r="U441" s="4"/>
       <c r="V441" s="4"/>
       <c r="W441" s="4"/>
-      <c r="X441" s="4"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="4"/>
@@ -15147,7 +14630,6 @@
       <c r="U442" s="4"/>
       <c r="V442" s="4"/>
       <c r="W442" s="4"/>
-      <c r="X442" s="4"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="4"/>
@@ -15173,7 +14655,6 @@
       <c r="U443" s="4"/>
       <c r="V443" s="4"/>
       <c r="W443" s="4"/>
-      <c r="X443" s="4"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="4"/>
@@ -15199,7 +14680,6 @@
       <c r="U444" s="4"/>
       <c r="V444" s="4"/>
       <c r="W444" s="4"/>
-      <c r="X444" s="4"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="4"/>
@@ -15225,7 +14705,6 @@
       <c r="U445" s="4"/>
       <c r="V445" s="4"/>
       <c r="W445" s="4"/>
-      <c r="X445" s="4"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="4"/>
@@ -15251,7 +14730,6 @@
       <c r="U446" s="4"/>
       <c r="V446" s="4"/>
       <c r="W446" s="4"/>
-      <c r="X446" s="4"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="4"/>
@@ -15277,7 +14755,6 @@
       <c r="U447" s="4"/>
       <c r="V447" s="4"/>
       <c r="W447" s="4"/>
-      <c r="X447" s="4"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="4"/>
@@ -15303,7 +14780,6 @@
       <c r="U448" s="4"/>
       <c r="V448" s="4"/>
       <c r="W448" s="4"/>
-      <c r="X448" s="4"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="4"/>
@@ -15329,7 +14805,6 @@
       <c r="U449" s="4"/>
       <c r="V449" s="4"/>
       <c r="W449" s="4"/>
-      <c r="X449" s="4"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="4"/>
@@ -15355,7 +14830,6 @@
       <c r="U450" s="4"/>
       <c r="V450" s="4"/>
       <c r="W450" s="4"/>
-      <c r="X450" s="4"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="4"/>
@@ -15381,7 +14855,6 @@
       <c r="U451" s="4"/>
       <c r="V451" s="4"/>
       <c r="W451" s="4"/>
-      <c r="X451" s="4"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="4"/>
@@ -15407,7 +14880,6 @@
       <c r="U452" s="4"/>
       <c r="V452" s="4"/>
       <c r="W452" s="4"/>
-      <c r="X452" s="4"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="4"/>
@@ -15433,7 +14905,6 @@
       <c r="U453" s="4"/>
       <c r="V453" s="4"/>
       <c r="W453" s="4"/>
-      <c r="X453" s="4"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="4"/>
@@ -15459,7 +14930,6 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
       <c r="W454" s="4"/>
-      <c r="X454" s="4"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="4"/>
@@ -15485,7 +14955,6 @@
       <c r="U455" s="4"/>
       <c r="V455" s="4"/>
       <c r="W455" s="4"/>
-      <c r="X455" s="4"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="4"/>
@@ -15511,7 +14980,6 @@
       <c r="U456" s="4"/>
       <c r="V456" s="4"/>
       <c r="W456" s="4"/>
-      <c r="X456" s="4"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="4"/>
@@ -15537,7 +15005,6 @@
       <c r="U457" s="4"/>
       <c r="V457" s="4"/>
       <c r="W457" s="4"/>
-      <c r="X457" s="4"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="4"/>
@@ -15563,7 +15030,6 @@
       <c r="U458" s="4"/>
       <c r="V458" s="4"/>
       <c r="W458" s="4"/>
-      <c r="X458" s="4"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="4"/>
@@ -15589,7 +15055,6 @@
       <c r="U459" s="4"/>
       <c r="V459" s="4"/>
       <c r="W459" s="4"/>
-      <c r="X459" s="4"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="4"/>
@@ -15615,7 +15080,6 @@
       <c r="U460" s="4"/>
       <c r="V460" s="4"/>
       <c r="W460" s="4"/>
-      <c r="X460" s="4"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="4"/>
@@ -15641,7 +15105,6 @@
       <c r="U461" s="4"/>
       <c r="V461" s="4"/>
       <c r="W461" s="4"/>
-      <c r="X461" s="4"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="4"/>
@@ -15667,7 +15130,6 @@
       <c r="U462" s="4"/>
       <c r="V462" s="4"/>
       <c r="W462" s="4"/>
-      <c r="X462" s="4"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="4"/>
@@ -15693,7 +15155,6 @@
       <c r="U463" s="4"/>
       <c r="V463" s="4"/>
       <c r="W463" s="4"/>
-      <c r="X463" s="4"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="4"/>
@@ -15719,7 +15180,6 @@
       <c r="U464" s="4"/>
       <c r="V464" s="4"/>
       <c r="W464" s="4"/>
-      <c r="X464" s="4"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="4"/>
@@ -15745,7 +15205,6 @@
       <c r="U465" s="4"/>
       <c r="V465" s="4"/>
       <c r="W465" s="4"/>
-      <c r="X465" s="4"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="4"/>
@@ -15771,7 +15230,6 @@
       <c r="U466" s="4"/>
       <c r="V466" s="4"/>
       <c r="W466" s="4"/>
-      <c r="X466" s="4"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="4"/>
@@ -15797,7 +15255,6 @@
       <c r="U467" s="4"/>
       <c r="V467" s="4"/>
       <c r="W467" s="4"/>
-      <c r="X467" s="4"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="4"/>
@@ -15823,7 +15280,6 @@
       <c r="U468" s="4"/>
       <c r="V468" s="4"/>
       <c r="W468" s="4"/>
-      <c r="X468" s="4"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="4"/>
@@ -15849,7 +15305,6 @@
       <c r="U469" s="4"/>
       <c r="V469" s="4"/>
       <c r="W469" s="4"/>
-      <c r="X469" s="4"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="4"/>
@@ -15875,7 +15330,6 @@
       <c r="U470" s="4"/>
       <c r="V470" s="4"/>
       <c r="W470" s="4"/>
-      <c r="X470" s="4"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="4"/>
@@ -15901,7 +15355,6 @@
       <c r="U471" s="4"/>
       <c r="V471" s="4"/>
       <c r="W471" s="4"/>
-      <c r="X471" s="4"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="4"/>
@@ -15927,7 +15380,6 @@
       <c r="U472" s="4"/>
       <c r="V472" s="4"/>
       <c r="W472" s="4"/>
-      <c r="X472" s="4"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="4"/>
@@ -15953,7 +15405,6 @@
       <c r="U473" s="4"/>
       <c r="V473" s="4"/>
       <c r="W473" s="4"/>
-      <c r="X473" s="4"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="4"/>
@@ -15979,7 +15430,6 @@
       <c r="U474" s="4"/>
       <c r="V474" s="4"/>
       <c r="W474" s="4"/>
-      <c r="X474" s="4"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="4"/>
@@ -16005,7 +15455,6 @@
       <c r="U475" s="4"/>
       <c r="V475" s="4"/>
       <c r="W475" s="4"/>
-      <c r="X475" s="4"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="4"/>
@@ -16031,7 +15480,6 @@
       <c r="U476" s="4"/>
       <c r="V476" s="4"/>
       <c r="W476" s="4"/>
-      <c r="X476" s="4"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="4"/>
@@ -16057,7 +15505,6 @@
       <c r="U477" s="4"/>
       <c r="V477" s="4"/>
       <c r="W477" s="4"/>
-      <c r="X477" s="4"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="4"/>
@@ -16083,7 +15530,6 @@
       <c r="U478" s="4"/>
       <c r="V478" s="4"/>
       <c r="W478" s="4"/>
-      <c r="X478" s="4"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="4"/>
@@ -16109,7 +15555,6 @@
       <c r="U479" s="4"/>
       <c r="V479" s="4"/>
       <c r="W479" s="4"/>
-      <c r="X479" s="4"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="4"/>
@@ -16135,7 +15580,6 @@
       <c r="U480" s="4"/>
       <c r="V480" s="4"/>
       <c r="W480" s="4"/>
-      <c r="X480" s="4"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="4"/>
@@ -16161,7 +15605,6 @@
       <c r="U481" s="4"/>
       <c r="V481" s="4"/>
       <c r="W481" s="4"/>
-      <c r="X481" s="4"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="4"/>
@@ -16187,7 +15630,6 @@
       <c r="U482" s="4"/>
       <c r="V482" s="4"/>
       <c r="W482" s="4"/>
-      <c r="X482" s="4"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="4"/>
@@ -16213,7 +15655,6 @@
       <c r="U483" s="4"/>
       <c r="V483" s="4"/>
       <c r="W483" s="4"/>
-      <c r="X483" s="4"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="4"/>
@@ -16239,7 +15680,6 @@
       <c r="U484" s="4"/>
       <c r="V484" s="4"/>
       <c r="W484" s="4"/>
-      <c r="X484" s="4"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="4"/>
@@ -16265,7 +15705,6 @@
       <c r="U485" s="4"/>
       <c r="V485" s="4"/>
       <c r="W485" s="4"/>
-      <c r="X485" s="4"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="4"/>
@@ -16291,7 +15730,6 @@
       <c r="U486" s="4"/>
       <c r="V486" s="4"/>
       <c r="W486" s="4"/>
-      <c r="X486" s="4"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="4"/>
@@ -16317,7 +15755,6 @@
       <c r="U487" s="4"/>
       <c r="V487" s="4"/>
       <c r="W487" s="4"/>
-      <c r="X487" s="4"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="4"/>
@@ -16343,7 +15780,6 @@
       <c r="U488" s="4"/>
       <c r="V488" s="4"/>
       <c r="W488" s="4"/>
-      <c r="X488" s="4"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="4"/>
@@ -16369,7 +15805,6 @@
       <c r="U489" s="4"/>
       <c r="V489" s="4"/>
       <c r="W489" s="4"/>
-      <c r="X489" s="4"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="4"/>
@@ -16395,7 +15830,6 @@
       <c r="U490" s="4"/>
       <c r="V490" s="4"/>
       <c r="W490" s="4"/>
-      <c r="X490" s="4"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="4"/>
@@ -16421,7 +15855,6 @@
       <c r="U491" s="4"/>
       <c r="V491" s="4"/>
       <c r="W491" s="4"/>
-      <c r="X491" s="4"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="4"/>
@@ -16447,7 +15880,6 @@
       <c r="U492" s="4"/>
       <c r="V492" s="4"/>
       <c r="W492" s="4"/>
-      <c r="X492" s="4"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="4"/>
@@ -16473,7 +15905,6 @@
       <c r="U493" s="4"/>
       <c r="V493" s="4"/>
       <c r="W493" s="4"/>
-      <c r="X493" s="4"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="4"/>
@@ -16499,7 +15930,6 @@
       <c r="U494" s="4"/>
       <c r="V494" s="4"/>
       <c r="W494" s="4"/>
-      <c r="X494" s="4"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="4"/>
@@ -16525,7 +15955,6 @@
       <c r="U495" s="4"/>
       <c r="V495" s="4"/>
       <c r="W495" s="4"/>
-      <c r="X495" s="4"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="4"/>
@@ -16551,7 +15980,6 @@
       <c r="U496" s="4"/>
       <c r="V496" s="4"/>
       <c r="W496" s="4"/>
-      <c r="X496" s="4"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="4"/>
@@ -16577,7 +16005,6 @@
       <c r="U497" s="4"/>
       <c r="V497" s="4"/>
       <c r="W497" s="4"/>
-      <c r="X497" s="4"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="4"/>
@@ -16603,7 +16030,6 @@
       <c r="U498" s="4"/>
       <c r="V498" s="4"/>
       <c r="W498" s="4"/>
-      <c r="X498" s="4"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="4"/>
@@ -16629,7 +16055,6 @@
       <c r="U499" s="4"/>
       <c r="V499" s="4"/>
       <c r="W499" s="4"/>
-      <c r="X499" s="4"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="4"/>
@@ -16655,7 +16080,6 @@
       <c r="U500" s="4"/>
       <c r="V500" s="4"/>
       <c r="W500" s="4"/>
-      <c r="X500" s="4"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="4"/>
@@ -16681,7 +16105,6 @@
       <c r="U501" s="4"/>
       <c r="V501" s="4"/>
       <c r="W501" s="4"/>
-      <c r="X501" s="4"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="4"/>
@@ -16707,7 +16130,6 @@
       <c r="U502" s="4"/>
       <c r="V502" s="4"/>
       <c r="W502" s="4"/>
-      <c r="X502" s="4"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="4"/>
@@ -16733,7 +16155,6 @@
       <c r="U503" s="4"/>
       <c r="V503" s="4"/>
       <c r="W503" s="4"/>
-      <c r="X503" s="4"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="4"/>
@@ -16759,7 +16180,6 @@
       <c r="U504" s="4"/>
       <c r="V504" s="4"/>
       <c r="W504" s="4"/>
-      <c r="X504" s="4"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="4"/>
@@ -16785,7 +16205,6 @@
       <c r="U505" s="4"/>
       <c r="V505" s="4"/>
       <c r="W505" s="4"/>
-      <c r="X505" s="4"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="4"/>
@@ -16811,7 +16230,6 @@
       <c r="U506" s="4"/>
       <c r="V506" s="4"/>
       <c r="W506" s="4"/>
-      <c r="X506" s="4"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="4"/>
@@ -16837,7 +16255,6 @@
       <c r="U507" s="4"/>
       <c r="V507" s="4"/>
       <c r="W507" s="4"/>
-      <c r="X507" s="4"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="4"/>
@@ -16863,7 +16280,6 @@
       <c r="U508" s="4"/>
       <c r="V508" s="4"/>
       <c r="W508" s="4"/>
-      <c r="X508" s="4"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="4"/>
@@ -16889,7 +16305,6 @@
       <c r="U509" s="4"/>
       <c r="V509" s="4"/>
       <c r="W509" s="4"/>
-      <c r="X509" s="4"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="4"/>
@@ -16915,7 +16330,6 @@
       <c r="U510" s="4"/>
       <c r="V510" s="4"/>
       <c r="W510" s="4"/>
-      <c r="X510" s="4"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="4"/>
@@ -16941,7 +16355,6 @@
       <c r="U511" s="4"/>
       <c r="V511" s="4"/>
       <c r="W511" s="4"/>
-      <c r="X511" s="4"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="4"/>
@@ -16967,7 +16380,6 @@
       <c r="U512" s="4"/>
       <c r="V512" s="4"/>
       <c r="W512" s="4"/>
-      <c r="X512" s="4"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="4"/>
@@ -16993,7 +16405,6 @@
       <c r="U513" s="4"/>
       <c r="V513" s="4"/>
       <c r="W513" s="4"/>
-      <c r="X513" s="4"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="4"/>
@@ -17019,7 +16430,6 @@
       <c r="U514" s="4"/>
       <c r="V514" s="4"/>
       <c r="W514" s="4"/>
-      <c r="X514" s="4"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="4"/>
@@ -17045,7 +16455,6 @@
       <c r="U515" s="4"/>
       <c r="V515" s="4"/>
       <c r="W515" s="4"/>
-      <c r="X515" s="4"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="4"/>
@@ -17071,7 +16480,6 @@
       <c r="U516" s="4"/>
       <c r="V516" s="4"/>
       <c r="W516" s="4"/>
-      <c r="X516" s="4"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="4"/>
@@ -17097,7 +16505,6 @@
       <c r="U517" s="4"/>
       <c r="V517" s="4"/>
       <c r="W517" s="4"/>
-      <c r="X517" s="4"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="4"/>
@@ -17123,7 +16530,6 @@
       <c r="U518" s="4"/>
       <c r="V518" s="4"/>
       <c r="W518" s="4"/>
-      <c r="X518" s="4"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="4"/>
@@ -17149,7 +16555,6 @@
       <c r="U519" s="4"/>
       <c r="V519" s="4"/>
       <c r="W519" s="4"/>
-      <c r="X519" s="4"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="4"/>
@@ -17175,7 +16580,6 @@
       <c r="U520" s="4"/>
       <c r="V520" s="4"/>
       <c r="W520" s="4"/>
-      <c r="X520" s="4"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="4"/>
@@ -17201,7 +16605,6 @@
       <c r="U521" s="4"/>
       <c r="V521" s="4"/>
       <c r="W521" s="4"/>
-      <c r="X521" s="4"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="4"/>
@@ -17227,7 +16630,6 @@
       <c r="U522" s="4"/>
       <c r="V522" s="4"/>
       <c r="W522" s="4"/>
-      <c r="X522" s="4"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="4"/>
@@ -17253,7 +16655,6 @@
       <c r="U523" s="4"/>
       <c r="V523" s="4"/>
       <c r="W523" s="4"/>
-      <c r="X523" s="4"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="4"/>
@@ -17279,7 +16680,6 @@
       <c r="U524" s="4"/>
       <c r="V524" s="4"/>
       <c r="W524" s="4"/>
-      <c r="X524" s="4"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="4"/>
@@ -17305,7 +16705,6 @@
       <c r="U525" s="4"/>
       <c r="V525" s="4"/>
       <c r="W525" s="4"/>
-      <c r="X525" s="4"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="4"/>
@@ -17331,7 +16730,6 @@
       <c r="U526" s="4"/>
       <c r="V526" s="4"/>
       <c r="W526" s="4"/>
-      <c r="X526" s="4"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="4"/>
@@ -17357,7 +16755,6 @@
       <c r="U527" s="4"/>
       <c r="V527" s="4"/>
       <c r="W527" s="4"/>
-      <c r="X527" s="4"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="4"/>
@@ -17383,7 +16780,6 @@
       <c r="U528" s="4"/>
       <c r="V528" s="4"/>
       <c r="W528" s="4"/>
-      <c r="X528" s="4"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="4"/>
@@ -17409,7 +16805,6 @@
       <c r="U529" s="4"/>
       <c r="V529" s="4"/>
       <c r="W529" s="4"/>
-      <c r="X529" s="4"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="4"/>
@@ -17435,7 +16830,6 @@
       <c r="U530" s="4"/>
       <c r="V530" s="4"/>
       <c r="W530" s="4"/>
-      <c r="X530" s="4"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="4"/>
@@ -17461,7 +16855,6 @@
       <c r="U531" s="4"/>
       <c r="V531" s="4"/>
       <c r="W531" s="4"/>
-      <c r="X531" s="4"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="4"/>
@@ -17487,7 +16880,6 @@
       <c r="U532" s="4"/>
       <c r="V532" s="4"/>
       <c r="W532" s="4"/>
-      <c r="X532" s="4"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="4"/>
@@ -17513,7 +16905,6 @@
       <c r="U533" s="4"/>
       <c r="V533" s="4"/>
       <c r="W533" s="4"/>
-      <c r="X533" s="4"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="4"/>
@@ -17539,7 +16930,6 @@
       <c r="U534" s="4"/>
       <c r="V534" s="4"/>
       <c r="W534" s="4"/>
-      <c r="X534" s="4"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="4"/>
@@ -17565,7 +16955,6 @@
       <c r="U535" s="4"/>
       <c r="V535" s="4"/>
       <c r="W535" s="4"/>
-      <c r="X535" s="4"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="4"/>
@@ -17591,7 +16980,6 @@
       <c r="U536" s="4"/>
       <c r="V536" s="4"/>
       <c r="W536" s="4"/>
-      <c r="X536" s="4"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="4"/>
@@ -17617,7 +17005,6 @@
       <c r="U537" s="4"/>
       <c r="V537" s="4"/>
       <c r="W537" s="4"/>
-      <c r="X537" s="4"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="4"/>
@@ -17643,7 +17030,6 @@
       <c r="U538" s="4"/>
       <c r="V538" s="4"/>
       <c r="W538" s="4"/>
-      <c r="X538" s="4"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="4"/>
@@ -17669,7 +17055,6 @@
       <c r="U539" s="4"/>
       <c r="V539" s="4"/>
       <c r="W539" s="4"/>
-      <c r="X539" s="4"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="4"/>
@@ -17695,7 +17080,6 @@
       <c r="U540" s="4"/>
       <c r="V540" s="4"/>
       <c r="W540" s="4"/>
-      <c r="X540" s="4"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="4"/>
@@ -17721,7 +17105,6 @@
       <c r="U541" s="4"/>
       <c r="V541" s="4"/>
       <c r="W541" s="4"/>
-      <c r="X541" s="4"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="4"/>
@@ -17747,7 +17130,6 @@
       <c r="U542" s="4"/>
       <c r="V542" s="4"/>
       <c r="W542" s="4"/>
-      <c r="X542" s="4"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="4"/>
@@ -17773,7 +17155,6 @@
       <c r="U543" s="4"/>
       <c r="V543" s="4"/>
       <c r="W543" s="4"/>
-      <c r="X543" s="4"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="4"/>
@@ -17799,7 +17180,6 @@
       <c r="U544" s="4"/>
       <c r="V544" s="4"/>
       <c r="W544" s="4"/>
-      <c r="X544" s="4"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="4"/>
@@ -17825,7 +17205,6 @@
       <c r="U545" s="4"/>
       <c r="V545" s="4"/>
       <c r="W545" s="4"/>
-      <c r="X545" s="4"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="4"/>
@@ -17851,7 +17230,6 @@
       <c r="U546" s="4"/>
       <c r="V546" s="4"/>
       <c r="W546" s="4"/>
-      <c r="X546" s="4"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="4"/>
@@ -17877,7 +17255,6 @@
       <c r="U547" s="4"/>
       <c r="V547" s="4"/>
       <c r="W547" s="4"/>
-      <c r="X547" s="4"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="4"/>
@@ -17903,7 +17280,6 @@
       <c r="U548" s="4"/>
       <c r="V548" s="4"/>
       <c r="W548" s="4"/>
-      <c r="X548" s="4"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="4"/>
@@ -17929,7 +17305,6 @@
       <c r="U549" s="4"/>
       <c r="V549" s="4"/>
       <c r="W549" s="4"/>
-      <c r="X549" s="4"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="4"/>
@@ -17955,7 +17330,6 @@
       <c r="U550" s="4"/>
       <c r="V550" s="4"/>
       <c r="W550" s="4"/>
-      <c r="X550" s="4"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="4"/>
@@ -17981,7 +17355,6 @@
       <c r="U551" s="4"/>
       <c r="V551" s="4"/>
       <c r="W551" s="4"/>
-      <c r="X551" s="4"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="4"/>
@@ -18007,7 +17380,6 @@
       <c r="U552" s="4"/>
       <c r="V552" s="4"/>
       <c r="W552" s="4"/>
-      <c r="X552" s="4"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="4"/>
@@ -18033,7 +17405,6 @@
       <c r="U553" s="4"/>
       <c r="V553" s="4"/>
       <c r="W553" s="4"/>
-      <c r="X553" s="4"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="4"/>
@@ -18059,7 +17430,6 @@
       <c r="U554" s="4"/>
       <c r="V554" s="4"/>
       <c r="W554" s="4"/>
-      <c r="X554" s="4"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="4"/>
@@ -18085,7 +17455,6 @@
       <c r="U555" s="4"/>
       <c r="V555" s="4"/>
       <c r="W555" s="4"/>
-      <c r="X555" s="4"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="4"/>
@@ -18111,7 +17480,6 @@
       <c r="U556" s="4"/>
       <c r="V556" s="4"/>
       <c r="W556" s="4"/>
-      <c r="X556" s="4"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="4"/>
@@ -18137,7 +17505,6 @@
       <c r="U557" s="4"/>
       <c r="V557" s="4"/>
       <c r="W557" s="4"/>
-      <c r="X557" s="4"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="4"/>
@@ -18163,7 +17530,6 @@
       <c r="U558" s="4"/>
       <c r="V558" s="4"/>
       <c r="W558" s="4"/>
-      <c r="X558" s="4"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="4"/>
@@ -18189,7 +17555,6 @@
       <c r="U559" s="4"/>
       <c r="V559" s="4"/>
       <c r="W559" s="4"/>
-      <c r="X559" s="4"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="4"/>
@@ -18215,7 +17580,6 @@
       <c r="U560" s="4"/>
       <c r="V560" s="4"/>
       <c r="W560" s="4"/>
-      <c r="X560" s="4"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="4"/>
@@ -18241,7 +17605,6 @@
       <c r="U561" s="4"/>
       <c r="V561" s="4"/>
       <c r="W561" s="4"/>
-      <c r="X561" s="4"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="4"/>
@@ -18267,7 +17630,6 @@
       <c r="U562" s="4"/>
       <c r="V562" s="4"/>
       <c r="W562" s="4"/>
-      <c r="X562" s="4"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="4"/>
@@ -18293,7 +17655,6 @@
       <c r="U563" s="4"/>
       <c r="V563" s="4"/>
       <c r="W563" s="4"/>
-      <c r="X563" s="4"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="4"/>
@@ -18319,7 +17680,6 @@
       <c r="U564" s="4"/>
       <c r="V564" s="4"/>
       <c r="W564" s="4"/>
-      <c r="X564" s="4"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="4"/>
@@ -18345,7 +17705,6 @@
       <c r="U565" s="4"/>
       <c r="V565" s="4"/>
       <c r="W565" s="4"/>
-      <c r="X565" s="4"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="4"/>
@@ -18371,7 +17730,6 @@
       <c r="U566" s="4"/>
       <c r="V566" s="4"/>
       <c r="W566" s="4"/>
-      <c r="X566" s="4"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="4"/>
@@ -18397,7 +17755,6 @@
       <c r="U567" s="4"/>
       <c r="V567" s="4"/>
       <c r="W567" s="4"/>
-      <c r="X567" s="4"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="4"/>
@@ -18423,7 +17780,6 @@
       <c r="U568" s="4"/>
       <c r="V568" s="4"/>
       <c r="W568" s="4"/>
-      <c r="X568" s="4"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="4"/>
@@ -18449,7 +17805,6 @@
       <c r="U569" s="4"/>
       <c r="V569" s="4"/>
       <c r="W569" s="4"/>
-      <c r="X569" s="4"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="4"/>
@@ -18475,7 +17830,6 @@
       <c r="U570" s="4"/>
       <c r="V570" s="4"/>
       <c r="W570" s="4"/>
-      <c r="X570" s="4"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="4"/>
@@ -18501,7 +17855,6 @@
       <c r="U571" s="4"/>
       <c r="V571" s="4"/>
       <c r="W571" s="4"/>
-      <c r="X571" s="4"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="4"/>
@@ -18527,7 +17880,6 @@
       <c r="U572" s="4"/>
       <c r="V572" s="4"/>
       <c r="W572" s="4"/>
-      <c r="X572" s="4"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="4"/>
@@ -18553,7 +17905,6 @@
       <c r="U573" s="4"/>
       <c r="V573" s="4"/>
       <c r="W573" s="4"/>
-      <c r="X573" s="4"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="4"/>
@@ -18579,7 +17930,6 @@
       <c r="U574" s="4"/>
       <c r="V574" s="4"/>
       <c r="W574" s="4"/>
-      <c r="X574" s="4"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="4"/>
@@ -18605,7 +17955,6 @@
       <c r="U575" s="4"/>
       <c r="V575" s="4"/>
       <c r="W575" s="4"/>
-      <c r="X575" s="4"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="4"/>
@@ -18631,7 +17980,6 @@
       <c r="U576" s="4"/>
       <c r="V576" s="4"/>
       <c r="W576" s="4"/>
-      <c r="X576" s="4"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="4"/>
@@ -18657,7 +18005,6 @@
       <c r="U577" s="4"/>
       <c r="V577" s="4"/>
       <c r="W577" s="4"/>
-      <c r="X577" s="4"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="4"/>
@@ -18683,7 +18030,6 @@
       <c r="U578" s="4"/>
       <c r="V578" s="4"/>
       <c r="W578" s="4"/>
-      <c r="X578" s="4"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="4"/>
@@ -18709,7 +18055,6 @@
       <c r="U579" s="4"/>
       <c r="V579" s="4"/>
       <c r="W579" s="4"/>
-      <c r="X579" s="4"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="4"/>
@@ -18735,7 +18080,6 @@
       <c r="U580" s="4"/>
       <c r="V580" s="4"/>
       <c r="W580" s="4"/>
-      <c r="X580" s="4"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="4"/>
@@ -18761,7 +18105,6 @@
       <c r="U581" s="4"/>
       <c r="V581" s="4"/>
       <c r="W581" s="4"/>
-      <c r="X581" s="4"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="4"/>
@@ -18787,7 +18130,6 @@
       <c r="U582" s="4"/>
       <c r="V582" s="4"/>
       <c r="W582" s="4"/>
-      <c r="X582" s="4"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="4"/>
@@ -18813,7 +18155,6 @@
       <c r="U583" s="4"/>
       <c r="V583" s="4"/>
       <c r="W583" s="4"/>
-      <c r="X583" s="4"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="4"/>
@@ -18839,7 +18180,6 @@
       <c r="U584" s="4"/>
       <c r="V584" s="4"/>
       <c r="W584" s="4"/>
-      <c r="X584" s="4"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="4"/>
@@ -18865,7 +18205,6 @@
       <c r="U585" s="4"/>
       <c r="V585" s="4"/>
       <c r="W585" s="4"/>
-      <c r="X585" s="4"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="4"/>
@@ -18891,7 +18230,6 @@
       <c r="U586" s="4"/>
       <c r="V586" s="4"/>
       <c r="W586" s="4"/>
-      <c r="X586" s="4"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="4"/>
@@ -18917,7 +18255,6 @@
       <c r="U587" s="4"/>
       <c r="V587" s="4"/>
       <c r="W587" s="4"/>
-      <c r="X587" s="4"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="4"/>
@@ -18943,7 +18280,6 @@
       <c r="U588" s="4"/>
       <c r="V588" s="4"/>
       <c r="W588" s="4"/>
-      <c r="X588" s="4"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="4"/>
@@ -18969,7 +18305,6 @@
       <c r="U589" s="4"/>
       <c r="V589" s="4"/>
       <c r="W589" s="4"/>
-      <c r="X589" s="4"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="4"/>
@@ -18995,7 +18330,6 @@
       <c r="U590" s="4"/>
       <c r="V590" s="4"/>
       <c r="W590" s="4"/>
-      <c r="X590" s="4"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="4"/>
@@ -19021,7 +18355,6 @@
       <c r="U591" s="4"/>
       <c r="V591" s="4"/>
       <c r="W591" s="4"/>
-      <c r="X591" s="4"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="4"/>
@@ -19047,7 +18380,6 @@
       <c r="U592" s="4"/>
       <c r="V592" s="4"/>
       <c r="W592" s="4"/>
-      <c r="X592" s="4"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="4"/>
@@ -19073,7 +18405,6 @@
       <c r="U593" s="4"/>
       <c r="V593" s="4"/>
       <c r="W593" s="4"/>
-      <c r="X593" s="4"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="4"/>
@@ -19099,7 +18430,6 @@
       <c r="U594" s="4"/>
       <c r="V594" s="4"/>
       <c r="W594" s="4"/>
-      <c r="X594" s="4"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="4"/>
@@ -19125,7 +18455,6 @@
       <c r="U595" s="4"/>
       <c r="V595" s="4"/>
       <c r="W595" s="4"/>
-      <c r="X595" s="4"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="4"/>
@@ -19151,7 +18480,6 @@
       <c r="U596" s="4"/>
       <c r="V596" s="4"/>
       <c r="W596" s="4"/>
-      <c r="X596" s="4"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="4"/>
@@ -19177,7 +18505,6 @@
       <c r="U597" s="4"/>
       <c r="V597" s="4"/>
       <c r="W597" s="4"/>
-      <c r="X597" s="4"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="4"/>
@@ -19203,7 +18530,6 @@
       <c r="U598" s="4"/>
       <c r="V598" s="4"/>
       <c r="W598" s="4"/>
-      <c r="X598" s="4"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="4"/>
@@ -19229,7 +18555,6 @@
       <c r="U599" s="4"/>
       <c r="V599" s="4"/>
       <c r="W599" s="4"/>
-      <c r="X599" s="4"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="4"/>
@@ -19255,7 +18580,6 @@
       <c r="U600" s="4"/>
       <c r="V600" s="4"/>
       <c r="W600" s="4"/>
-      <c r="X600" s="4"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="4"/>
@@ -19281,7 +18605,6 @@
       <c r="U601" s="4"/>
       <c r="V601" s="4"/>
       <c r="W601" s="4"/>
-      <c r="X601" s="4"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="4"/>
@@ -19307,7 +18630,6 @@
       <c r="U602" s="4"/>
       <c r="V602" s="4"/>
       <c r="W602" s="4"/>
-      <c r="X602" s="4"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="4"/>
@@ -19333,7 +18655,6 @@
       <c r="U603" s="4"/>
       <c r="V603" s="4"/>
       <c r="W603" s="4"/>
-      <c r="X603" s="4"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="4"/>
@@ -19359,7 +18680,6 @@
       <c r="U604" s="4"/>
       <c r="V604" s="4"/>
       <c r="W604" s="4"/>
-      <c r="X604" s="4"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="4"/>
@@ -19385,7 +18705,6 @@
       <c r="U605" s="4"/>
       <c r="V605" s="4"/>
       <c r="W605" s="4"/>
-      <c r="X605" s="4"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="4"/>
@@ -19411,7 +18730,6 @@
       <c r="U606" s="4"/>
       <c r="V606" s="4"/>
       <c r="W606" s="4"/>
-      <c r="X606" s="4"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="4"/>
@@ -19437,7 +18755,6 @@
       <c r="U607" s="4"/>
       <c r="V607" s="4"/>
       <c r="W607" s="4"/>
-      <c r="X607" s="4"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="4"/>
@@ -19463,7 +18780,6 @@
       <c r="U608" s="4"/>
       <c r="V608" s="4"/>
       <c r="W608" s="4"/>
-      <c r="X608" s="4"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="4"/>
@@ -19489,7 +18805,6 @@
       <c r="U609" s="4"/>
       <c r="V609" s="4"/>
       <c r="W609" s="4"/>
-      <c r="X609" s="4"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="4"/>
@@ -19515,7 +18830,6 @@
       <c r="U610" s="4"/>
       <c r="V610" s="4"/>
       <c r="W610" s="4"/>
-      <c r="X610" s="4"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="4"/>
@@ -19541,7 +18855,6 @@
       <c r="U611" s="4"/>
       <c r="V611" s="4"/>
       <c r="W611" s="4"/>
-      <c r="X611" s="4"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="4"/>
@@ -19567,7 +18880,6 @@
       <c r="U612" s="4"/>
       <c r="V612" s="4"/>
       <c r="W612" s="4"/>
-      <c r="X612" s="4"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="4"/>
@@ -19593,7 +18905,6 @@
       <c r="U613" s="4"/>
       <c r="V613" s="4"/>
       <c r="W613" s="4"/>
-      <c r="X613" s="4"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="4"/>
@@ -19619,7 +18930,6 @@
       <c r="U614" s="4"/>
       <c r="V614" s="4"/>
       <c r="W614" s="4"/>
-      <c r="X614" s="4"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="4"/>
@@ -19645,7 +18955,6 @@
       <c r="U615" s="4"/>
       <c r="V615" s="4"/>
       <c r="W615" s="4"/>
-      <c r="X615" s="4"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="4"/>
@@ -19671,7 +18980,6 @@
       <c r="U616" s="4"/>
       <c r="V616" s="4"/>
       <c r="W616" s="4"/>
-      <c r="X616" s="4"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="4"/>
@@ -19697,7 +19005,6 @@
       <c r="U617" s="4"/>
       <c r="V617" s="4"/>
       <c r="W617" s="4"/>
-      <c r="X617" s="4"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="4"/>
@@ -19723,7 +19030,6 @@
       <c r="U618" s="4"/>
       <c r="V618" s="4"/>
       <c r="W618" s="4"/>
-      <c r="X618" s="4"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="4"/>
@@ -19749,7 +19055,6 @@
       <c r="U619" s="4"/>
       <c r="V619" s="4"/>
       <c r="W619" s="4"/>
-      <c r="X619" s="4"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="4"/>
@@ -19775,7 +19080,6 @@
       <c r="U620" s="4"/>
       <c r="V620" s="4"/>
       <c r="W620" s="4"/>
-      <c r="X620" s="4"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="4"/>
@@ -19801,7 +19105,6 @@
       <c r="U621" s="4"/>
       <c r="V621" s="4"/>
       <c r="W621" s="4"/>
-      <c r="X621" s="4"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="4"/>
@@ -19827,7 +19130,6 @@
       <c r="U622" s="4"/>
       <c r="V622" s="4"/>
       <c r="W622" s="4"/>
-      <c r="X622" s="4"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="4"/>
@@ -19853,7 +19155,6 @@
       <c r="U623" s="4"/>
       <c r="V623" s="4"/>
       <c r="W623" s="4"/>
-      <c r="X623" s="4"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="4"/>
@@ -19879,7 +19180,6 @@
       <c r="U624" s="4"/>
       <c r="V624" s="4"/>
       <c r="W624" s="4"/>
-      <c r="X624" s="4"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="4"/>
@@ -19905,7 +19205,6 @@
       <c r="U625" s="4"/>
       <c r="V625" s="4"/>
       <c r="W625" s="4"/>
-      <c r="X625" s="4"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="4"/>
@@ -19931,7 +19230,6 @@
       <c r="U626" s="4"/>
       <c r="V626" s="4"/>
       <c r="W626" s="4"/>
-      <c r="X626" s="4"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="4"/>
@@ -19957,7 +19255,6 @@
       <c r="U627" s="4"/>
       <c r="V627" s="4"/>
       <c r="W627" s="4"/>
-      <c r="X627" s="4"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="4"/>
@@ -19983,7 +19280,6 @@
       <c r="U628" s="4"/>
       <c r="V628" s="4"/>
       <c r="W628" s="4"/>
-      <c r="X628" s="4"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="4"/>
@@ -20009,7 +19305,6 @@
       <c r="U629" s="4"/>
       <c r="V629" s="4"/>
       <c r="W629" s="4"/>
-      <c r="X629" s="4"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="4"/>
@@ -20035,7 +19330,6 @@
       <c r="U630" s="4"/>
       <c r="V630" s="4"/>
       <c r="W630" s="4"/>
-      <c r="X630" s="4"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="4"/>
@@ -20061,7 +19355,6 @@
       <c r="U631" s="4"/>
       <c r="V631" s="4"/>
       <c r="W631" s="4"/>
-      <c r="X631" s="4"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="4"/>
@@ -20087,7 +19380,6 @@
       <c r="U632" s="4"/>
       <c r="V632" s="4"/>
       <c r="W632" s="4"/>
-      <c r="X632" s="4"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="4"/>
@@ -20113,7 +19405,6 @@
       <c r="U633" s="4"/>
       <c r="V633" s="4"/>
       <c r="W633" s="4"/>
-      <c r="X633" s="4"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="4"/>
@@ -20139,7 +19430,6 @@
       <c r="U634" s="4"/>
       <c r="V634" s="4"/>
       <c r="W634" s="4"/>
-      <c r="X634" s="4"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="4"/>
@@ -20165,7 +19455,6 @@
       <c r="U635" s="4"/>
       <c r="V635" s="4"/>
       <c r="W635" s="4"/>
-      <c r="X635" s="4"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="4"/>
@@ -20191,7 +19480,6 @@
       <c r="U636" s="4"/>
       <c r="V636" s="4"/>
       <c r="W636" s="4"/>
-      <c r="X636" s="4"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="4"/>
@@ -20217,7 +19505,6 @@
       <c r="U637" s="4"/>
       <c r="V637" s="4"/>
       <c r="W637" s="4"/>
-      <c r="X637" s="4"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="4"/>
@@ -20243,7 +19530,6 @@
       <c r="U638" s="4"/>
       <c r="V638" s="4"/>
       <c r="W638" s="4"/>
-      <c r="X638" s="4"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="4"/>
@@ -20269,7 +19555,6 @@
       <c r="U639" s="4"/>
       <c r="V639" s="4"/>
       <c r="W639" s="4"/>
-      <c r="X639" s="4"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="4"/>
@@ -20295,7 +19580,6 @@
       <c r="U640" s="4"/>
       <c r="V640" s="4"/>
       <c r="W640" s="4"/>
-      <c r="X640" s="4"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="4"/>
@@ -20321,7 +19605,6 @@
       <c r="U641" s="4"/>
       <c r="V641" s="4"/>
       <c r="W641" s="4"/>
-      <c r="X641" s="4"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="4"/>
@@ -20347,7 +19630,6 @@
       <c r="U642" s="4"/>
       <c r="V642" s="4"/>
       <c r="W642" s="4"/>
-      <c r="X642" s="4"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="4"/>
@@ -20373,7 +19655,6 @@
       <c r="U643" s="4"/>
       <c r="V643" s="4"/>
       <c r="W643" s="4"/>
-      <c r="X643" s="4"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="4"/>
@@ -20399,7 +19680,6 @@
       <c r="U644" s="4"/>
       <c r="V644" s="4"/>
       <c r="W644" s="4"/>
-      <c r="X644" s="4"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="4"/>
@@ -20425,7 +19705,6 @@
       <c r="U645" s="4"/>
       <c r="V645" s="4"/>
       <c r="W645" s="4"/>
-      <c r="X645" s="4"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="4"/>
@@ -20451,7 +19730,6 @@
       <c r="U646" s="4"/>
       <c r="V646" s="4"/>
       <c r="W646" s="4"/>
-      <c r="X646" s="4"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="4"/>
@@ -20477,7 +19755,6 @@
       <c r="U647" s="4"/>
       <c r="V647" s="4"/>
       <c r="W647" s="4"/>
-      <c r="X647" s="4"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="4"/>
@@ -20503,7 +19780,6 @@
       <c r="U648" s="4"/>
       <c r="V648" s="4"/>
       <c r="W648" s="4"/>
-      <c r="X648" s="4"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="4"/>
@@ -20529,7 +19805,6 @@
       <c r="U649" s="4"/>
       <c r="V649" s="4"/>
       <c r="W649" s="4"/>
-      <c r="X649" s="4"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="4"/>
@@ -20555,7 +19830,6 @@
       <c r="U650" s="4"/>
       <c r="V650" s="4"/>
       <c r="W650" s="4"/>
-      <c r="X650" s="4"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="4"/>
@@ -20581,7 +19855,6 @@
       <c r="U651" s="4"/>
       <c r="V651" s="4"/>
       <c r="W651" s="4"/>
-      <c r="X651" s="4"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="4"/>
@@ -20607,7 +19880,6 @@
       <c r="U652" s="4"/>
       <c r="V652" s="4"/>
       <c r="W652" s="4"/>
-      <c r="X652" s="4"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="4"/>
@@ -20633,7 +19905,6 @@
       <c r="U653" s="4"/>
       <c r="V653" s="4"/>
       <c r="W653" s="4"/>
-      <c r="X653" s="4"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="4"/>
@@ -20659,7 +19930,6 @@
       <c r="U654" s="4"/>
       <c r="V654" s="4"/>
       <c r="W654" s="4"/>
-      <c r="X654" s="4"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="4"/>
@@ -20685,7 +19955,6 @@
       <c r="U655" s="4"/>
       <c r="V655" s="4"/>
       <c r="W655" s="4"/>
-      <c r="X655" s="4"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="4"/>
@@ -20711,7 +19980,6 @@
       <c r="U656" s="4"/>
       <c r="V656" s="4"/>
       <c r="W656" s="4"/>
-      <c r="X656" s="4"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="4"/>
@@ -20737,7 +20005,6 @@
       <c r="U657" s="4"/>
       <c r="V657" s="4"/>
       <c r="W657" s="4"/>
-      <c r="X657" s="4"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="4"/>
@@ -20763,7 +20030,6 @@
       <c r="U658" s="4"/>
       <c r="V658" s="4"/>
       <c r="W658" s="4"/>
-      <c r="X658" s="4"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="4"/>
@@ -20789,7 +20055,6 @@
       <c r="U659" s="4"/>
       <c r="V659" s="4"/>
       <c r="W659" s="4"/>
-      <c r="X659" s="4"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="4"/>
@@ -20815,7 +20080,6 @@
       <c r="U660" s="4"/>
       <c r="V660" s="4"/>
       <c r="W660" s="4"/>
-      <c r="X660" s="4"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="4"/>
@@ -20841,7 +20105,6 @@
       <c r="U661" s="4"/>
       <c r="V661" s="4"/>
       <c r="W661" s="4"/>
-      <c r="X661" s="4"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="4"/>
@@ -20867,7 +20130,6 @@
       <c r="U662" s="4"/>
       <c r="V662" s="4"/>
       <c r="W662" s="4"/>
-      <c r="X662" s="4"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="4"/>
@@ -20893,7 +20155,6 @@
       <c r="U663" s="4"/>
       <c r="V663" s="4"/>
       <c r="W663" s="4"/>
-      <c r="X663" s="4"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="4"/>
@@ -20919,7 +20180,6 @@
       <c r="U664" s="4"/>
       <c r="V664" s="4"/>
       <c r="W664" s="4"/>
-      <c r="X664" s="4"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="4"/>
@@ -20945,7 +20205,6 @@
       <c r="U665" s="4"/>
       <c r="V665" s="4"/>
       <c r="W665" s="4"/>
-      <c r="X665" s="4"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="4"/>
@@ -20971,7 +20230,6 @@
       <c r="U666" s="4"/>
       <c r="V666" s="4"/>
       <c r="W666" s="4"/>
-      <c r="X666" s="4"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="4"/>
@@ -20997,7 +20255,6 @@
       <c r="U667" s="4"/>
       <c r="V667" s="4"/>
       <c r="W667" s="4"/>
-      <c r="X667" s="4"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="4"/>
@@ -21023,7 +20280,6 @@
       <c r="U668" s="4"/>
       <c r="V668" s="4"/>
       <c r="W668" s="4"/>
-      <c r="X668" s="4"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="4"/>
@@ -21049,7 +20305,6 @@
       <c r="U669" s="4"/>
       <c r="V669" s="4"/>
       <c r="W669" s="4"/>
-      <c r="X669" s="4"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="4"/>
@@ -21075,7 +20330,6 @@
       <c r="U670" s="4"/>
       <c r="V670" s="4"/>
       <c r="W670" s="4"/>
-      <c r="X670" s="4"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="4"/>
@@ -21101,7 +20355,6 @@
       <c r="U671" s="4"/>
       <c r="V671" s="4"/>
       <c r="W671" s="4"/>
-      <c r="X671" s="4"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="4"/>
@@ -21127,7 +20380,6 @@
       <c r="U672" s="4"/>
       <c r="V672" s="4"/>
       <c r="W672" s="4"/>
-      <c r="X672" s="4"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="4"/>
@@ -21153,7 +20405,6 @@
       <c r="U673" s="4"/>
       <c r="V673" s="4"/>
       <c r="W673" s="4"/>
-      <c r="X673" s="4"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="4"/>
@@ -21179,7 +20430,6 @@
       <c r="U674" s="4"/>
       <c r="V674" s="4"/>
       <c r="W674" s="4"/>
-      <c r="X674" s="4"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="4"/>
@@ -21205,7 +20455,6 @@
       <c r="U675" s="4"/>
       <c r="V675" s="4"/>
       <c r="W675" s="4"/>
-      <c r="X675" s="4"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="4"/>
@@ -21231,7 +20480,6 @@
       <c r="U676" s="4"/>
       <c r="V676" s="4"/>
       <c r="W676" s="4"/>
-      <c r="X676" s="4"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="4"/>
@@ -21257,7 +20505,6 @@
       <c r="U677" s="4"/>
       <c r="V677" s="4"/>
       <c r="W677" s="4"/>
-      <c r="X677" s="4"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="4"/>
@@ -21283,7 +20530,6 @@
       <c r="U678" s="4"/>
       <c r="V678" s="4"/>
       <c r="W678" s="4"/>
-      <c r="X678" s="4"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="4"/>
@@ -21309,7 +20555,6 @@
       <c r="U679" s="4"/>
       <c r="V679" s="4"/>
       <c r="W679" s="4"/>
-      <c r="X679" s="4"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="4"/>
@@ -21335,7 +20580,6 @@
       <c r="U680" s="4"/>
       <c r="V680" s="4"/>
       <c r="W680" s="4"/>
-      <c r="X680" s="4"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="4"/>
@@ -21361,7 +20605,6 @@
       <c r="U681" s="4"/>
       <c r="V681" s="4"/>
       <c r="W681" s="4"/>
-      <c r="X681" s="4"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="4"/>
@@ -21387,7 +20630,6 @@
       <c r="U682" s="4"/>
       <c r="V682" s="4"/>
       <c r="W682" s="4"/>
-      <c r="X682" s="4"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="4"/>
@@ -21413,7 +20655,6 @@
       <c r="U683" s="4"/>
       <c r="V683" s="4"/>
       <c r="W683" s="4"/>
-      <c r="X683" s="4"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="4"/>
@@ -21439,7 +20680,6 @@
       <c r="U684" s="4"/>
       <c r="V684" s="4"/>
       <c r="W684" s="4"/>
-      <c r="X684" s="4"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="4"/>
@@ -21465,7 +20705,6 @@
       <c r="U685" s="4"/>
       <c r="V685" s="4"/>
       <c r="W685" s="4"/>
-      <c r="X685" s="4"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="4"/>
@@ -21491,7 +20730,6 @@
       <c r="U686" s="4"/>
       <c r="V686" s="4"/>
       <c r="W686" s="4"/>
-      <c r="X686" s="4"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="4"/>
@@ -21517,7 +20755,6 @@
       <c r="U687" s="4"/>
       <c r="V687" s="4"/>
       <c r="W687" s="4"/>
-      <c r="X687" s="4"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="4"/>
@@ -21543,7 +20780,6 @@
       <c r="U688" s="4"/>
       <c r="V688" s="4"/>
       <c r="W688" s="4"/>
-      <c r="X688" s="4"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="4"/>
@@ -21569,7 +20805,6 @@
       <c r="U689" s="4"/>
       <c r="V689" s="4"/>
       <c r="W689" s="4"/>
-      <c r="X689" s="4"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="4"/>
@@ -21595,7 +20830,6 @@
       <c r="U690" s="4"/>
       <c r="V690" s="4"/>
       <c r="W690" s="4"/>
-      <c r="X690" s="4"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="4"/>
@@ -21621,7 +20855,6 @@
       <c r="U691" s="4"/>
       <c r="V691" s="4"/>
       <c r="W691" s="4"/>
-      <c r="X691" s="4"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="4"/>
@@ -21647,7 +20880,6 @@
       <c r="U692" s="4"/>
       <c r="V692" s="4"/>
       <c r="W692" s="4"/>
-      <c r="X692" s="4"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="4"/>
@@ -21673,7 +20905,6 @@
       <c r="U693" s="4"/>
       <c r="V693" s="4"/>
       <c r="W693" s="4"/>
-      <c r="X693" s="4"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="4"/>
@@ -21699,7 +20930,6 @@
       <c r="U694" s="4"/>
       <c r="V694" s="4"/>
       <c r="W694" s="4"/>
-      <c r="X694" s="4"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="4"/>
@@ -21725,7 +20955,6 @@
       <c r="U695" s="4"/>
       <c r="V695" s="4"/>
       <c r="W695" s="4"/>
-      <c r="X695" s="4"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="4"/>
@@ -21751,7 +20980,6 @@
       <c r="U696" s="4"/>
       <c r="V696" s="4"/>
       <c r="W696" s="4"/>
-      <c r="X696" s="4"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="4"/>
@@ -21777,7 +21005,6 @@
       <c r="U697" s="4"/>
       <c r="V697" s="4"/>
       <c r="W697" s="4"/>
-      <c r="X697" s="4"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="4"/>
@@ -21803,7 +21030,6 @@
       <c r="U698" s="4"/>
       <c r="V698" s="4"/>
       <c r="W698" s="4"/>
-      <c r="X698" s="4"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="4"/>
@@ -21829,7 +21055,6 @@
       <c r="U699" s="4"/>
       <c r="V699" s="4"/>
       <c r="W699" s="4"/>
-      <c r="X699" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
